--- a/F题/data/所有数据.xlsx
+++ b/F题/data/所有数据.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全部数据" sheetId="3" r:id="rId1"/>
     <sheet name="分类得分" sheetId="1" r:id="rId2"/>
     <sheet name="瑞典数据" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -383,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="31">
@@ -458,54 +459,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,23 +496,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +528,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -566,9 +567,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,23 +581,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +648,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +720,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,151 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,6 +851,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -861,26 +880,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,9 +940,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,137 +968,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,9 +1165,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1189,9 +1187,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1329,6 +1324,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="635"/>
+          <a:ext cx="7210425" cy="6696075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,13 +1639,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="10.1083333333333" style="31"/>
+    <col min="7" max="7" width="10.1083333333333" style="20"/>
     <col min="8" max="8" width="10.1083333333333"/>
     <col min="9" max="9" width="9.21666666666667"/>
     <col min="10" max="10" width="10.1083333333333"/>
     <col min="11" max="11" width="9.21666666666667"/>
     <col min="12" max="12" width="10.1083333333333"/>
-    <col min="13" max="13" width="9" style="32"/>
+    <col min="13" max="13" width="9" style="30"/>
     <col min="14" max="14" width="11.5"/>
   </cols>
   <sheetData>
@@ -1644,7 +1686,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
@@ -1652,10 +1694,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1678,16 +1720,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="32">
+      <c r="M2" s="30">
         <v>0.9001</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="37">
         <v>0.4411</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1712,16 +1754,16 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="32">
+      <c r="M3" s="30">
         <v>0.3694</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="37">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1733,16 +1775,16 @@
       <c r="G4" s="21">
         <v>0.8876</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="30">
         <v>0.8832</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="37">
         <v>0.3162</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1761,16 +1803,16 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="M5" s="32">
+      <c r="M5" s="30">
         <v>0.6325</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="37">
         <v>0.1717</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1795,16 +1837,16 @@
       <c r="J6" s="3">
         <v>1.226</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <v>0.7504</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="37">
         <v>0.5274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1821,16 +1863,16 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="32">
+      <c r="M7" s="30">
         <v>0.9148</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="37">
         <v>0.3344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1853,16 +1895,16 @@
       <c r="J8" s="3">
         <v>0.7321</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="30">
         <v>0.81</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="37">
         <v>0.274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1889,16 +1931,16 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <v>0.3579</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="37">
         <v>0.7537</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1925,16 +1967,16 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <v>0.786</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="37">
         <v>0.5069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1961,16 +2003,16 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="32">
+      <c r="M11" s="30">
         <v>0.02</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="37">
         <v>0.96</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1999,43 +2041,43 @@
         <v>0.8127</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>0.8647</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="37">
         <v>0.3055</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="33"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="33"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2046,8 +2088,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2070,7 +2112,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="32">
+      <c r="M19" s="30">
         <v>0.9379</v>
       </c>
       <c r="N19">
@@ -2079,8 +2121,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2147,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="32">
+      <c r="M20" s="30">
         <v>0.02</v>
       </c>
       <c r="N20">
@@ -2114,8 +2156,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="33"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2127,7 +2169,7 @@
       <c r="G21" s="21">
         <v>13.6909</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="30">
         <v>0.1455</v>
       </c>
       <c r="N21">
@@ -2136,8 +2178,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2156,7 +2198,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="M22" s="32">
+      <c r="M22" s="30">
         <v>0.2643</v>
       </c>
       <c r="N22">
@@ -2165,8 +2207,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
@@ -2191,7 +2233,7 @@
       <c r="J23" s="3">
         <v>22.5669</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="30">
         <v>0.6201</v>
       </c>
       <c r="N23">
@@ -2200,8 +2242,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2268,7 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="32">
+      <c r="M24" s="30">
         <v>0.4593</v>
       </c>
       <c r="N24">
@@ -2235,8 +2277,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2303,7 @@
       <c r="J25" s="3">
         <v>31.9255</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="30">
         <v>0.96</v>
       </c>
       <c r="N25">
@@ -2270,8 +2312,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="33"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2298,7 +2340,7 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="32">
+      <c r="M26" s="30">
         <v>0.7205</v>
       </c>
       <c r="N26">
@@ -2307,8 +2349,8 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2335,7 +2377,7 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="32">
+      <c r="M27" s="30">
         <v>0.7721</v>
       </c>
       <c r="N27">
@@ -2344,8 +2386,8 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2376,7 +2418,7 @@
       <c r="L28" s="3">
         <v>23.3146</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="30">
         <v>0.361</v>
       </c>
       <c r="N28">
@@ -2385,8 +2427,8 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +2437,7 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="32">
+      <c r="M29" s="30">
         <v>0.2056</v>
       </c>
       <c r="N29">
@@ -2404,28 +2446,28 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="33"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2433,7 +2475,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2441,11 +2483,11 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="33"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
         <v>16</v>
@@ -2477,12 +2519,12 @@
       <c r="L37" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="30">
         <v>0.186</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="33"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -2514,12 +2556,12 @@
       <c r="L38" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="30">
         <v>0.1235</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>18</v>
@@ -2551,12 +2593,12 @@
       <c r="L39" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="33"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
         <v>19</v>
@@ -2588,12 +2630,12 @@
       <c r="L40" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="30">
         <v>0.5686</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="33"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
         <v>20</v>
@@ -2625,12 +2667,12 @@
       <c r="L41" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="30">
         <v>0.5292</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="33"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
         <v>21</v>
@@ -2662,12 +2704,12 @@
       <c r="L42" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="33"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
         <v>22</v>
@@ -2699,12 +2741,12 @@
       <c r="L43" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="30">
         <v>0.5409</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="33"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
         <v>23</v>
@@ -2718,10 +2760,10 @@
       <c r="F44" s="3">
         <v>0.785010696895576</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="34">
         <v>0.787</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="35">
         <v>0.797</v>
       </c>
       <c r="I44" s="3">
@@ -2736,12 +2778,12 @@
       <c r="L44" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="30">
         <v>0.6777</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="33"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
         <v>24</v>
@@ -2773,12 +2815,12 @@
       <c r="L45" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="30">
         <v>0.6101</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="33"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
         <v>25</v>
@@ -2810,12 +2852,12 @@
       <c r="L46" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="30">
         <v>0.5404</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="33"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -2847,48 +2889,48 @@
       <c r="L47" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="30">
         <v>0.4212</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="33"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="33"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="33"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="33"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="33"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="33"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="1"/>
       <c r="N55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="33"/>
-      <c r="B56" s="38" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2897,7 +2939,7 @@
       <c r="D56" s="3">
         <v>527</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="30">
         <v>0.96</v>
       </c>
       <c r="N56">
@@ -2906,15 +2948,15 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="33"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="30">
         <v>0.02</v>
       </c>
       <c r="N57">
@@ -2923,8 +2965,8 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="33"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
@@ -2939,7 +2981,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="32">
+      <c r="M58" s="30">
         <v>0.0218</v>
       </c>
       <c r="N58">
@@ -2948,8 +2990,8 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="33"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="3" t="s">
         <v>19</v>
       </c>
@@ -2964,7 +3006,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="32">
+      <c r="M59" s="30">
         <v>0.0971</v>
       </c>
       <c r="N59">
@@ -2973,8 +3015,8 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="33"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="3" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +3031,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="32">
+      <c r="M60" s="30">
         <v>0.4756</v>
       </c>
       <c r="N60">
@@ -2998,8 +3040,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="33"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="3" t="s">
         <v>21</v>
       </c>
@@ -3014,7 +3056,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="32">
+      <c r="M61" s="30">
         <v>0.0918</v>
       </c>
       <c r="N61">
@@ -3023,8 +3065,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="33"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="3" t="s">
         <v>22</v>
       </c>
@@ -3039,7 +3081,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="32">
+      <c r="M62" s="30">
         <v>0.1671</v>
       </c>
       <c r="N62">
@@ -3048,8 +3090,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="33"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
@@ -3064,7 +3106,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="32">
+      <c r="M63" s="30">
         <v>0.1007</v>
       </c>
       <c r="N63">
@@ -3073,8 +3115,8 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="33"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="3" t="s">
         <v>24</v>
       </c>
@@ -3089,7 +3131,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="32">
+      <c r="M64" s="30">
         <v>0.2317</v>
       </c>
       <c r="N64">
@@ -3098,8 +3140,8 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="33"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
@@ -3114,7 +3156,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="32">
+      <c r="M65" s="30">
         <v>0.0864</v>
       </c>
       <c r="N65">
@@ -3123,8 +3165,8 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="33"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="3" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3181,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="32">
+      <c r="M66" s="30">
         <v>0.2155</v>
       </c>
       <c r="N66">
@@ -3148,20 +3190,20 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="36"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="36"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="36"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="33"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3174,12 +3216,12 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="36"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="33"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3192,8 +3234,8 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="33"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3206,8 +3248,8 @@
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="33"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3220,8 +3262,8 @@
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="33"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3234,8 +3276,8 @@
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="33"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3248,8 +3290,8 @@
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="33"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3262,8 +3304,8 @@
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="33"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3276,8 +3318,8 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="33"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3290,20 +3332,20 @@
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="39"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="33"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="3" t="s">
         <v>16</v>
       </c>
@@ -3334,13 +3376,13 @@
       <c r="L82" s="3">
         <v>1.403</v>
       </c>
-      <c r="M82" s="32">
+      <c r="M82" s="30">
         <v>0.2085</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="33"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
@@ -3369,13 +3411,13 @@
       <c r="L83" s="3">
         <v>0.6205</v>
       </c>
-      <c r="M83" s="32">
+      <c r="M83" s="30">
         <v>0.1376</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="33"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="3" t="s">
         <v>18</v>
       </c>
@@ -3406,13 +3448,13 @@
       <c r="L84" s="3">
         <v>0.3656</v>
       </c>
-      <c r="M84" s="32">
+      <c r="M84" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="33"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="3" t="s">
         <v>19</v>
       </c>
@@ -3438,13 +3480,13 @@
         <v>3.2266</v>
       </c>
       <c r="K85" s="3"/>
-      <c r="M85" s="32">
+      <c r="M85" s="30">
         <v>0.6065</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="33"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="3" t="s">
         <v>20</v>
       </c>
@@ -3472,13 +3514,13 @@
       <c r="K86" s="3">
         <v>3.1744</v>
       </c>
-      <c r="M86" s="32">
+      <c r="M86" s="30">
         <v>0.5866</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="33"/>
-      <c r="B87" s="41"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="3" t="s">
         <v>21</v>
       </c>
@@ -3504,13 +3546,13 @@
       <c r="K87" s="3">
         <v>6.1853</v>
       </c>
-      <c r="M87" s="32">
+      <c r="M87" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="33"/>
-      <c r="B88" s="41"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
@@ -3538,13 +3580,13 @@
       <c r="K88" s="3">
         <v>2.9389</v>
       </c>
-      <c r="M88" s="32">
+      <c r="M88" s="30">
         <v>0.5732</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="33"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="3" t="s">
         <v>23</v>
       </c>
@@ -3557,10 +3599,10 @@
       <c r="F89" s="3">
         <v>3.8702</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G89" s="34">
         <v>3.8895</v>
       </c>
-      <c r="H89" s="42">
+      <c r="H89" s="40">
         <v>3.942</v>
       </c>
       <c r="I89" s="3">
@@ -3572,13 +3614,13 @@
       <c r="K89" s="3">
         <v>4.1465</v>
       </c>
-      <c r="M89" s="32">
+      <c r="M89" s="30">
         <v>0.7577</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="33"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="3" t="s">
         <v>24</v>
       </c>
@@ -3606,13 +3648,13 @@
       <c r="K90" s="3">
         <v>3.1672</v>
       </c>
-      <c r="M90" s="32">
+      <c r="M90" s="30">
         <v>0.6631</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="33"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="3" t="s">
         <v>25</v>
       </c>
@@ -3641,13 +3683,13 @@
         <v>3.2443</v>
       </c>
       <c r="L91" s="3"/>
-      <c r="M91" s="32">
+      <c r="M91" s="30">
         <v>0.6535</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="33"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="3" t="s">
         <v>26</v>
       </c>
@@ -3678,52 +3720,52 @@
       <c r="L92" s="3">
         <v>2.8883</v>
       </c>
-      <c r="M92" s="32">
+      <c r="M92" s="30">
         <v>0.5011</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="33"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="39"/>
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="33"/>
-      <c r="B94" s="41"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="39"/>
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="33"/>
-      <c r="B95" s="41"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="39"/>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="33"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="39"/>
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="33"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="39"/>
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="33"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="33"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="39"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="33"/>
-      <c r="B101" s="40" t="s">
+      <c r="A101" s="31"/>
+      <c r="B101" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="3"/>
@@ -3731,15 +3773,15 @@
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="33"/>
-      <c r="B102" s="35"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="33"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="3" t="s">
         <v>16</v>
       </c>
@@ -3764,13 +3806,13 @@
       <c r="L103" s="3">
         <v>24.7259</v>
       </c>
-      <c r="M103" s="32">
+      <c r="M103" s="30">
         <v>0.2049</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="33"/>
-      <c r="B104" s="35"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="3" t="s">
         <v>17</v>
       </c>
@@ -3785,13 +3827,13 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="32">
+      <c r="M104" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="33"/>
-      <c r="B105" s="35"/>
+      <c r="A105" s="31"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="3" t="s">
         <v>18</v>
       </c>
@@ -3818,13 +3860,13 @@
       <c r="L105" s="3">
         <v>15.168</v>
       </c>
-      <c r="M105" s="32">
+      <c r="M105" s="30">
         <v>0.021</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="33"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="3" t="s">
         <v>19</v>
       </c>
@@ -3849,13 +3891,13 @@
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="32">
+      <c r="M106" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="33"/>
-      <c r="B107" s="35"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="3" t="s">
         <v>20</v>
       </c>
@@ -3872,13 +3914,13 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="32">
+      <c r="M107" s="30">
         <v>0.2002</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="33"/>
-      <c r="B108" s="35"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="3" t="s">
         <v>21</v>
       </c>
@@ -3899,13 +3941,13 @@
         <v>38.7509</v>
       </c>
       <c r="L108" s="3"/>
-      <c r="M108" s="32">
+      <c r="M108" s="30">
         <v>0.5061</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="33"/>
-      <c r="B109" s="35"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="3" t="s">
         <v>22</v>
       </c>
@@ -3934,13 +3976,13 @@
         <v>20.123</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="M109" s="32">
+      <c r="M109" s="30">
         <v>0.1558</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="33"/>
-      <c r="B110" s="35"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="3" t="s">
         <v>23</v>
       </c>
@@ -3953,10 +3995,10 @@
       <c r="F110" s="3">
         <v>13.3546</v>
       </c>
-      <c r="G110" s="36">
+      <c r="G110" s="34">
         <v>13.4584</v>
       </c>
-      <c r="H110" s="37">
+      <c r="H110" s="35">
         <v>13.5772</v>
       </c>
       <c r="I110" s="3">
@@ -3969,13 +4011,13 @@
         <v>12.7413</v>
       </c>
       <c r="L110" s="3"/>
-      <c r="M110" s="32">
+      <c r="M110" s="30">
         <v>0.0465</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="33"/>
-      <c r="B111" s="35"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="3" t="s">
         <v>24</v>
       </c>
@@ -4000,13 +4042,13 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-      <c r="M111" s="32">
+      <c r="M111" s="30">
         <v>0.1455</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="33"/>
-      <c r="B112" s="35"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="3" t="s">
         <v>25</v>
       </c>
@@ -4035,13 +4077,13 @@
         <v>12.2835</v>
       </c>
       <c r="L112" s="3"/>
-      <c r="M112" s="32">
+      <c r="M112" s="30">
         <v>0.045</v>
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="33"/>
-      <c r="B113" s="35"/>
+      <c r="A113" s="31"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="3" t="s">
         <v>26</v>
       </c>
@@ -4064,47 +4106,47 @@
       <c r="L113" s="3">
         <v>14.8453</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="30">
         <v>0.1368</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="33"/>
-      <c r="B114" s="35"/>
+      <c r="A114" s="31"/>
+      <c r="B114" s="33"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="33"/>
-      <c r="B115" s="35"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="33"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="33"/>
-      <c r="B116" s="35"/>
+      <c r="A116" s="31"/>
+      <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="33"/>
-      <c r="B117" s="35"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="33"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="33"/>
-      <c r="B118" s="35"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="35"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="33"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="33"/>
-      <c r="B120" s="40" t="s">
+      <c r="A120" s="31"/>
+      <c r="B120" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="33"/>
-      <c r="B121" s="35"/>
+      <c r="A121" s="31"/>
+      <c r="B121" s="33"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="33"/>
-      <c r="B122" s="35"/>
+      <c r="A122" s="31"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="3" t="s">
         <v>16</v>
       </c>
@@ -4129,13 +4171,13 @@
       <c r="L122" s="3">
         <v>26.2828</v>
       </c>
-      <c r="M122" s="32">
+      <c r="M122" s="30">
         <v>0.5757</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="33"/>
-      <c r="B123" s="35"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="3" t="s">
         <v>17</v>
       </c>
@@ -4156,13 +4198,13 @@
       <c r="L123" s="3">
         <v>9.1306</v>
       </c>
-      <c r="M123" s="32">
+      <c r="M123" s="30">
         <v>0.1901</v>
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="33"/>
-      <c r="B124" s="35"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="3" t="s">
         <v>18</v>
       </c>
@@ -4171,7 +4213,7 @@
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="43">
+      <c r="G124" s="41">
         <v>0.2329</v>
       </c>
       <c r="H124" s="3"/>
@@ -4181,13 +4223,13 @@
       <c r="L124" s="3">
         <v>4.0271</v>
       </c>
-      <c r="M124" s="32">
+      <c r="M124" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="33"/>
-      <c r="B125" s="35"/>
+      <c r="A125" s="31"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="3" t="s">
         <v>19</v>
       </c>
@@ -4214,13 +4256,13 @@
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="32">
+      <c r="M125" s="30">
         <v>0.8655</v>
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="33"/>
-      <c r="B126" s="35"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="3" t="s">
         <v>20</v>
       </c>
@@ -4243,13 +4285,13 @@
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="32">
+      <c r="M126" s="30">
         <v>0.7984</v>
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="33"/>
-      <c r="B127" s="35"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="3" t="s">
         <v>21</v>
       </c>
@@ -4272,13 +4314,13 @@
         <v>46.136</v>
       </c>
       <c r="L127" s="3"/>
-      <c r="M127" s="32">
+      <c r="M127" s="30">
         <v>0.2815</v>
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="33"/>
-      <c r="B128" s="35"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="3" t="s">
         <v>22</v>
       </c>
@@ -4305,13 +4347,13 @@
       </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-      <c r="M128" s="32">
+      <c r="M128" s="30">
         <v>0.6878</v>
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="33"/>
-      <c r="B129" s="35"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="3" t="s">
         <v>23</v>
       </c>
@@ -4340,13 +4382,13 @@
         <v>49.8633</v>
       </c>
       <c r="L129" s="3"/>
-      <c r="M129" s="32">
+      <c r="M129" s="30">
         <v>0.8261</v>
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="33"/>
-      <c r="B130" s="35"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="3" t="s">
         <v>24</v>
       </c>
@@ -4373,13 +4415,13 @@
         <v>48.8878</v>
       </c>
       <c r="L130" s="3"/>
-      <c r="M130" s="32">
+      <c r="M130" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="33"/>
-      <c r="B131" s="35"/>
+      <c r="A131" s="31"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="3" t="s">
         <v>25</v>
       </c>
@@ -4392,10 +4434,10 @@
       <c r="F131" s="3">
         <v>33.4671</v>
       </c>
-      <c r="G131" s="36">
+      <c r="G131" s="34">
         <v>27.5573</v>
       </c>
-      <c r="H131" s="37">
+      <c r="H131" s="35">
         <v>23.4492</v>
       </c>
       <c r="I131" s="3">
@@ -4408,13 +4450,13 @@
         <v>36.1116</v>
       </c>
       <c r="L131" s="3"/>
-      <c r="M131" s="32">
+      <c r="M131" s="30">
         <v>0.5098</v>
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="33"/>
-      <c r="B132" s="35"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="3" t="s">
         <v>26</v>
       </c>
@@ -4443,41 +4485,41 @@
       <c r="L132" s="3">
         <v>25.6742</v>
       </c>
-      <c r="M132" s="32">
+      <c r="M132" s="30">
         <v>0.3509</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="35"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="33"/>
-      <c r="B134" s="35"/>
+      <c r="A134" s="31"/>
+      <c r="B134" s="33"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="33"/>
-      <c r="B135" s="35"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="33"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="33"/>
-      <c r="B136" s="35"/>
+      <c r="A136" s="31"/>
+      <c r="B136" s="33"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="33"/>
-      <c r="B137" s="35"/>
+      <c r="A137" s="31"/>
+      <c r="B137" s="33"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="33"/>
-      <c r="B139" s="44"/>
+      <c r="A139" s="31"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="3" t="s">
         <v>16</v>
       </c>
@@ -4486,7 +4528,7 @@
         <v>9.1363</v>
       </c>
       <c r="F139" s="3"/>
-      <c r="G139" s="45">
+      <c r="G139" s="43">
         <v>9.1363</v>
       </c>
       <c r="H139" s="3"/>
@@ -4494,13 +4536,13 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="M139" s="32">
+      <c r="M139" s="30">
         <v>0.2906</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="33"/>
-      <c r="B140" s="44"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="3" t="s">
         <v>17</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>9.6854</v>
       </c>
       <c r="F140" s="3"/>
-      <c r="G140" s="43">
+      <c r="G140" s="41">
         <v>9.6854</v>
       </c>
       <c r="H140" s="3"/>
@@ -4517,35 +4559,35 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="32">
+      <c r="M140" s="30">
         <v>0.3109</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="33"/>
-      <c r="B141" s="44"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="47">
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="45">
         <v>1.8275</v>
       </c>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="46">
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
+      <c r="K141" s="44">
         <v>1.8275</v>
       </c>
-      <c r="M141" s="32">
+      <c r="M141" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="33"/>
-      <c r="B142" s="44"/>
+      <c r="A142" s="31"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="3" t="s">
         <v>19</v>
       </c>
@@ -4568,20 +4610,20 @@
         <v>24.7129</v>
       </c>
       <c r="L142" s="3"/>
-      <c r="M142" s="32">
+      <c r="M142" s="30">
         <v>0.8008</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="33"/>
-      <c r="B143" s="44"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="36">
+      <c r="G143" s="34">
         <v>15.7147</v>
       </c>
       <c r="H143" s="3">
@@ -4597,20 +4639,20 @@
         <v>18.0017</v>
       </c>
       <c r="L143" s="3"/>
-      <c r="M143" s="32">
+      <c r="M143" s="30">
         <v>0.5341</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="33"/>
-      <c r="B144" s="44"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="48">
+      <c r="G144" s="46">
         <v>21.9868</v>
       </c>
       <c r="H144" s="3">
@@ -4624,26 +4666,26 @@
       </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="M144" s="32">
+      <c r="M144" s="30">
         <v>0.7663</v>
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="33"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="31"/>
+      <c r="B145" s="42"/>
       <c r="C145" t="s">
         <v>22</v>
       </c>
-      <c r="G145" s="31">
+      <c r="G145" s="20">
         <v>10.32</v>
       </c>
-      <c r="M145" s="32">
+      <c r="M145" s="30">
         <v>0.3344</v>
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="33"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="31"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="3" t="s">
         <v>23</v>
       </c>
@@ -4666,13 +4708,13 @@
       <c r="L146" s="3">
         <v>31.0932</v>
       </c>
-      <c r="M146" s="32">
+      <c r="M146" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="33"/>
-      <c r="B147" s="44"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="3" t="s">
         <v>24</v>
       </c>
@@ -4691,13 +4733,13 @@
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="M147" s="32">
+      <c r="M147" s="30">
         <v>0.7902</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="33"/>
-      <c r="B148" s="44"/>
+      <c r="A148" s="31"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="3" t="s">
         <v>25</v>
       </c>
@@ -4720,13 +4762,13 @@
         <v>23.9369</v>
       </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="32">
+      <c r="M148" s="30">
         <v>0.7683</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="33"/>
-      <c r="B149" s="44"/>
+      <c r="A149" s="31"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="3" t="s">
         <v>26</v>
       </c>
@@ -4755,46 +4797,46 @@
       <c r="L149" s="3">
         <v>11.7553</v>
       </c>
-      <c r="M149" s="32">
+      <c r="M149" s="30">
         <v>0.3253</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="33"/>
-      <c r="B150" s="44"/>
+      <c r="A150" s="31"/>
+      <c r="B150" s="42"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="33"/>
-      <c r="B151" s="44"/>
+      <c r="A151" s="31"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="33"/>
-      <c r="B152" s="44"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="33"/>
-      <c r="B153" s="44"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="42"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="33"/>
-      <c r="B154" s="44"/>
+      <c r="A154" s="31"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="33"/>
-      <c r="B155" s="44"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49"/>
-      <c r="G155" s="50"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="48"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -4802,8 +4844,8 @@
       <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="33"/>
-      <c r="B156" s="38" t="s">
+      <c r="A156" s="31"/>
+      <c r="B156" s="36" t="s">
         <v>40</v>
       </c>
       <c r="N156" t="s">
@@ -4811,13 +4853,13 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="33"/>
-      <c r="B157" s="38"/>
+      <c r="A157" s="31"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="3"/>
-      <c r="G157" s="51">
+      <c r="G157" s="49">
         <v>55.3473</v>
       </c>
       <c r="H157" s="3">
@@ -4835,7 +4877,7 @@
       <c r="L157" s="3">
         <v>58.22413</v>
       </c>
-      <c r="M157" s="53">
+      <c r="M157" s="51">
         <v>0.96</v>
       </c>
       <c r="N157">
@@ -4844,12 +4886,12 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="33"/>
-      <c r="B158" s="38"/>
+      <c r="A158" s="31"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G158" s="51">
+      <c r="G158" s="49">
         <v>36.4308</v>
       </c>
       <c r="H158" s="3" t="s">
@@ -4867,7 +4909,7 @@
       <c r="L158" s="3">
         <v>38.6437</v>
       </c>
-      <c r="M158" s="53">
+      <c r="M158" s="51">
         <v>0.5772</v>
       </c>
       <c r="N158">
@@ -4876,12 +4918,12 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="33"/>
-      <c r="B159" s="38"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G159" s="51">
+      <c r="G159" s="49">
         <v>30.87</v>
       </c>
       <c r="H159" s="3">
@@ -4899,7 +4941,7 @@
       <c r="L159" s="3">
         <v>39.96728</v>
       </c>
-      <c r="M159" s="53">
+      <c r="M159" s="51">
         <v>0.4647</v>
       </c>
       <c r="N159">
@@ -4908,12 +4950,12 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="33"/>
-      <c r="B160" s="38"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="51">
+      <c r="G160" s="49">
         <v>17.1964</v>
       </c>
       <c r="H160" s="3">
@@ -4931,7 +4973,7 @@
       <c r="L160" s="3">
         <v>12.85294</v>
       </c>
-      <c r="M160" s="53">
+      <c r="M160" s="51">
         <v>0.188</v>
       </c>
       <c r="N160">
@@ -4940,12 +4982,12 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="33"/>
-      <c r="B161" s="38"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="36"/>
       <c r="C161" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G161" s="51">
+      <c r="G161" s="49">
         <v>19.7746</v>
       </c>
       <c r="H161" s="3">
@@ -4963,7 +5005,7 @@
       <c r="L161" s="3">
         <v>23.69447</v>
       </c>
-      <c r="M161" s="53">
+      <c r="M161" s="51">
         <v>0.2401</v>
       </c>
       <c r="N161">
@@ -4972,12 +5014,12 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="33"/>
-      <c r="B162" s="38"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G162" s="31">
+      <c r="G162" s="20">
         <v>9.1</v>
       </c>
       <c r="H162" s="3"/>
@@ -4985,7 +5027,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="53">
+      <c r="M162" s="51">
         <v>0.0241</v>
       </c>
       <c r="N162">
@@ -4994,12 +5036,12 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="33"/>
-      <c r="B163" s="38"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G163" s="31">
+      <c r="G163" s="20">
         <v>18.1</v>
       </c>
       <c r="H163" s="3" t="s">
@@ -5017,7 +5059,7 @@
       <c r="L163" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M163" s="53">
+      <c r="M163" s="51">
         <v>0.2063</v>
       </c>
       <c r="N163">
@@ -5026,12 +5068,12 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="33"/>
-      <c r="B164" s="38"/>
+      <c r="A164" s="31"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="51">
+      <c r="G164" s="49">
         <v>14.0588</v>
       </c>
       <c r="H164" s="3" t="s">
@@ -5049,7 +5091,7 @@
       <c r="L164" s="3">
         <v>16.15616</v>
       </c>
-      <c r="M164" s="53">
+      <c r="M164" s="51">
         <v>0.1245</v>
       </c>
       <c r="N164">
@@ -5058,12 +5100,12 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="33"/>
-      <c r="B165" s="38"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G165" s="51">
+      <c r="G165" s="49">
         <v>25.5627</v>
       </c>
       <c r="H165" s="3">
@@ -5081,7 +5123,7 @@
       <c r="L165" s="3">
         <v>26.92654</v>
       </c>
-      <c r="M165" s="53">
+      <c r="M165" s="51">
         <v>0.3573</v>
       </c>
       <c r="N165">
@@ -5090,12 +5132,12 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="33"/>
-      <c r="B166" s="38"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="36"/>
       <c r="C166" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G166" s="51">
+      <c r="G166" s="49">
         <v>8.8958</v>
       </c>
       <c r="H166" s="3">
@@ -5113,7 +5155,7 @@
       <c r="L166" s="3">
         <v>9.67928</v>
       </c>
-      <c r="M166" s="53">
+      <c r="M166" s="51">
         <v>0.02</v>
       </c>
       <c r="N166">
@@ -5122,12 +5164,12 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="33"/>
-      <c r="B167" s="38"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="51">
+      <c r="G167" s="49">
         <v>48.463</v>
       </c>
       <c r="H167" s="3">
@@ -5145,7 +5187,7 @@
       <c r="L167" s="3">
         <v>49.74521</v>
       </c>
-      <c r="M167" s="53">
+      <c r="M167" s="51">
         <v>0.8207</v>
       </c>
       <c r="N167">
@@ -5154,36 +5196,36 @@
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="33"/>
-      <c r="B168" s="38"/>
-      <c r="M168" s="53" t="s">
+      <c r="A168" s="31"/>
+      <c r="B168" s="36"/>
+      <c r="M168" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="33"/>
-      <c r="B169" s="38"/>
+      <c r="A169" s="31"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="33"/>
-      <c r="B170" s="38"/>
+      <c r="A170" s="31"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="33"/>
-      <c r="B171" s="38"/>
-      <c r="M171" s="53" t="s">
+      <c r="A171" s="31"/>
+      <c r="B171" s="36"/>
+      <c r="M171" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="33"/>
-      <c r="B172" s="38"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="36"/>
       <c r="G172" s="21" t="s">
         <v>42</v>
       </c>
@@ -5204,7 +5246,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -5212,25 +5254,25 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="33"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="1"/>
       <c r="N174" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="33"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="52">
+      <c r="D175" s="50">
         <v>42</v>
       </c>
       <c r="F175">
         <v>26</v>
       </c>
-      <c r="M175" s="32">
+      <c r="M175" s="30">
         <v>0.96</v>
       </c>
       <c r="N175">
@@ -5239,15 +5281,15 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="33"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D176" s="52">
+      <c r="D176" s="50">
         <v>0</v>
       </c>
-      <c r="M176" s="32">
+      <c r="M176" s="30">
         <v>0.02</v>
       </c>
       <c r="N176">
@@ -5256,15 +5298,15 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="33"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D177" s="52">
+      <c r="D177" s="50">
         <v>0</v>
       </c>
-      <c r="M177" s="32">
+      <c r="M177" s="30">
         <v>0.02</v>
       </c>
       <c r="N177">
@@ -5273,15 +5315,15 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="33"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D178" s="52">
+      <c r="D178" s="50">
         <v>0</v>
       </c>
-      <c r="M178" s="32">
+      <c r="M178" s="30">
         <v>0.02</v>
       </c>
       <c r="N178">
@@ -5290,18 +5332,18 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="33"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="52">
+      <c r="D179" s="50">
         <v>8</v>
       </c>
       <c r="F179">
         <v>6</v>
       </c>
-      <c r="M179" s="32">
+      <c r="M179" s="30">
         <v>0.199</v>
       </c>
       <c r="N179">
@@ -5310,18 +5352,18 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="33"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="52">
+      <c r="D180" s="50">
         <v>6</v>
       </c>
       <c r="F180">
         <v>7</v>
       </c>
-      <c r="M180" s="32">
+      <c r="M180" s="30">
         <v>0.1543</v>
       </c>
       <c r="N180">
@@ -5330,18 +5372,18 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="33"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D181" s="52">
+      <c r="D181" s="50">
         <v>34</v>
       </c>
       <c r="F181">
         <v>46</v>
       </c>
-      <c r="M181" s="32">
+      <c r="M181" s="30">
         <v>0.781</v>
       </c>
       <c r="N181">
@@ -5350,18 +5392,18 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="33"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="52">
+      <c r="D182" s="50">
         <v>13</v>
       </c>
       <c r="F182">
         <v>14</v>
       </c>
-      <c r="M182" s="32">
+      <c r="M182" s="30">
         <v>0.311</v>
       </c>
       <c r="N182">
@@ -5370,18 +5412,18 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="33"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D183" s="52">
+      <c r="D183" s="50">
         <v>6</v>
       </c>
       <c r="F183">
         <v>34</v>
       </c>
-      <c r="M183" s="32">
+      <c r="M183" s="30">
         <v>0.1543</v>
       </c>
       <c r="N183">
@@ -5390,18 +5432,18 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="33"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D184" s="52">
+      <c r="D184" s="50">
         <v>1</v>
       </c>
       <c r="F184">
         <v>48</v>
       </c>
-      <c r="M184" s="32">
+      <c r="M184" s="30">
         <v>0.0424</v>
       </c>
       <c r="N184">
@@ -5410,18 +5452,18 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="33"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D185" s="52">
+      <c r="D185" s="50">
         <v>31</v>
       </c>
       <c r="F185">
         <v>11</v>
       </c>
-      <c r="M185" s="32">
+      <c r="M185" s="30">
         <v>0.7138</v>
       </c>
       <c r="N185">
@@ -5430,48 +5472,48 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="33"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="33"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="33"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="33"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="33"/>
+      <c r="A190" s="31"/>
       <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="33"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="33"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="33"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="33" t="s">
+      <c r="A194" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B194" s="44" t="s">
+      <c r="B194" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="33"/>
-      <c r="B195" s="44"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="3" t="s">
         <v>16</v>
       </c>
@@ -5500,13 +5542,13 @@
       <c r="L195" s="3">
         <v>0</v>
       </c>
-      <c r="M195" s="32">
+      <c r="M195" s="30">
         <v>0.0291</v>
       </c>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="33"/>
-      <c r="B196" s="44"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="3" t="s">
         <v>17</v>
       </c>
@@ -5515,7 +5557,7 @@
         <v>0.0278</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="43">
+      <c r="G196" s="41">
         <v>0.0278</v>
       </c>
       <c r="H196" s="3"/>
@@ -5523,13 +5565,13 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-      <c r="M196" s="32">
+      <c r="M196" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="33"/>
-      <c r="B197" s="44"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="3" t="s">
         <v>18</v>
       </c>
@@ -5556,13 +5598,13 @@
       <c r="L197" s="3">
         <v>0</v>
       </c>
-      <c r="M197" s="32">
+      <c r="M197" s="30">
         <v>0.0447</v>
       </c>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="33"/>
-      <c r="B198" s="44"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="3" t="s">
         <v>19</v>
       </c>
@@ -5588,13 +5630,13 @@
         <v>4.5747</v>
       </c>
       <c r="K198" s="3"/>
-      <c r="M198" s="32">
+      <c r="M198" s="30">
         <v>0.4109</v>
       </c>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="33"/>
-      <c r="B199" s="44"/>
+      <c r="A199" s="31"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="3" t="s">
         <v>20</v>
       </c>
@@ -5622,13 +5664,13 @@
       <c r="K199" s="3">
         <v>10</v>
       </c>
-      <c r="M199" s="32">
+      <c r="M199" s="30">
         <v>0.96</v>
       </c>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="33"/>
-      <c r="B200" s="44"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="3" t="s">
         <v>21</v>
       </c>
@@ -5652,13 +5694,13 @@
       <c r="K200" s="3">
         <v>3</v>
       </c>
-      <c r="M200" s="32">
+      <c r="M200" s="30">
         <v>0.4209</v>
       </c>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="33"/>
-      <c r="B201" s="44"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="3" t="s">
         <v>22</v>
       </c>
@@ -5686,13 +5728,13 @@
       <c r="K201" s="3">
         <v>5</v>
       </c>
-      <c r="M201" s="32">
+      <c r="M201" s="30">
         <v>0.4418</v>
       </c>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="33"/>
-      <c r="B202" s="44"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="3" t="s">
         <v>23</v>
       </c>
@@ -5705,10 +5747,10 @@
       <c r="F202" s="3">
         <v>7.2455</v>
       </c>
-      <c r="G202" s="36">
+      <c r="G202" s="34">
         <v>8.9034</v>
       </c>
-      <c r="H202" s="37">
+      <c r="H202" s="35">
         <v>9.7566</v>
       </c>
       <c r="I202" s="3">
@@ -5720,13 +5762,13 @@
       <c r="K202" s="3">
         <v>10</v>
       </c>
-      <c r="M202" s="32">
+      <c r="M202" s="30">
         <v>0.8756</v>
       </c>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="33"/>
-      <c r="B203" s="44"/>
+      <c r="A203" s="31"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="3" t="s">
         <v>24</v>
       </c>
@@ -5754,13 +5796,13 @@
       <c r="K203" s="3">
         <v>4</v>
       </c>
-      <c r="M203" s="32">
+      <c r="M203" s="30">
         <v>0.158</v>
       </c>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="33"/>
-      <c r="B204" s="44"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="3" t="s">
         <v>25</v>
       </c>
@@ -5789,20 +5831,20 @@
         <v>6</v>
       </c>
       <c r="L204" s="3"/>
-      <c r="M204" s="32">
+      <c r="M204" s="30">
         <v>0.579</v>
       </c>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="33"/>
-      <c r="B205" s="44"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
-      <c r="G205" s="43">
+      <c r="G205" s="41">
         <v>0.16672</v>
       </c>
       <c r="H205" s="3">
@@ -5820,65 +5862,65 @@
       <c r="L205" s="3">
         <v>0</v>
       </c>
-      <c r="M205" s="32">
+      <c r="M205" s="30">
         <v>0.0334</v>
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="33"/>
-      <c r="B206" s="44"/>
+      <c r="A206" s="31"/>
+      <c r="B206" s="42"/>
       <c r="L206" s="3"/>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="33"/>
-      <c r="B207" s="44"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="42"/>
       <c r="L207" s="3"/>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="33"/>
-      <c r="B208" s="44"/>
+      <c r="A208" s="31"/>
+      <c r="B208" s="42"/>
       <c r="L208" s="3"/>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="33"/>
-      <c r="B209" s="44"/>
+      <c r="A209" s="31"/>
+      <c r="B209" s="42"/>
       <c r="L209" s="3"/>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="33"/>
-      <c r="B210" s="44"/>
+      <c r="A210" s="31"/>
+      <c r="B210" s="42"/>
       <c r="L210" s="3"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="33"/>
-      <c r="B211" s="44"/>
+      <c r="A211" s="31"/>
+      <c r="B211" s="42"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="33"/>
-      <c r="B212" s="44"/>
+      <c r="A212" s="31"/>
+      <c r="B212" s="42"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="33"/>
-      <c r="B213" s="44"/>
+      <c r="A213" s="31"/>
+      <c r="B213" s="42"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="33"/>
-      <c r="B214" s="44" t="s">
+      <c r="A214" s="31"/>
+      <c r="B214" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="33"/>
-      <c r="B215" s="44"/>
+      <c r="A215" s="31"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="3"/>
       <c r="N215" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="33"/>
-      <c r="B216" s="44"/>
+      <c r="A216" s="31"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="3" t="s">
         <v>16</v>
       </c>
@@ -5907,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="3"/>
-      <c r="M216" s="32">
+      <c r="M216" s="30">
         <v>0.02</v>
       </c>
       <c r="N216">
@@ -5916,8 +5958,8 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="33"/>
-      <c r="B217" s="44"/>
+      <c r="A217" s="31"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="3" t="s">
         <v>17</v>
       </c>
@@ -5944,7 +5986,7 @@
         <v>13.3226</v>
       </c>
       <c r="L217" s="3"/>
-      <c r="M217" s="32">
+      <c r="M217" s="30">
         <v>0.7204</v>
       </c>
       <c r="N217">
@@ -5953,8 +5995,8 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="33"/>
-      <c r="B218" s="44"/>
+      <c r="A218" s="31"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="3" t="s">
         <v>18</v>
       </c>
@@ -5982,7 +6024,7 @@
       <c r="K218" s="3">
         <v>1.3234</v>
       </c>
-      <c r="M218" s="32">
+      <c r="M218" s="30">
         <v>0.0993</v>
       </c>
       <c r="N218">
@@ -5991,8 +6033,8 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="33"/>
-      <c r="B219" s="44"/>
+      <c r="A219" s="31"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="3" t="s">
         <v>19</v>
       </c>
@@ -6018,7 +6060,7 @@
         <v>8.9642</v>
       </c>
       <c r="K219" s="3"/>
-      <c r="M219" s="32">
+      <c r="M219" s="30">
         <v>0.96</v>
       </c>
       <c r="N219">
@@ -6027,8 +6069,8 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="33"/>
-      <c r="B220" s="44"/>
+      <c r="A220" s="31"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="3" t="s">
         <v>20</v>
       </c>
@@ -6056,7 +6098,7 @@
       <c r="K220" s="3">
         <v>3</v>
       </c>
-      <c r="M220" s="32">
+      <c r="M220" s="30">
         <v>0.3193</v>
       </c>
       <c r="N220">
@@ -6065,8 +6107,8 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="33"/>
-      <c r="B221" s="44"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="3" t="s">
         <v>21</v>
       </c>
@@ -6092,7 +6134,7 @@
       <c r="K221" s="3">
         <v>5</v>
       </c>
-      <c r="M221" s="32">
+      <c r="M221" s="30">
         <v>0.5351</v>
       </c>
       <c r="N221">
@@ -6101,8 +6143,8 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="33"/>
-      <c r="B222" s="44"/>
+      <c r="A222" s="31"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="3" t="s">
         <v>22</v>
       </c>
@@ -6130,7 +6172,7 @@
       <c r="K222" s="3">
         <v>4</v>
       </c>
-      <c r="M222" s="32">
+      <c r="M222" s="30">
         <v>0.2465</v>
       </c>
       <c r="N222">
@@ -6139,8 +6181,8 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="33"/>
-      <c r="B223" s="44"/>
+      <c r="A223" s="31"/>
+      <c r="B223" s="42"/>
       <c r="C223" s="3" t="s">
         <v>23</v>
       </c>
@@ -6153,10 +6195,10 @@
       <c r="F223" s="3">
         <v>1.8823</v>
       </c>
-      <c r="G223" s="36">
+      <c r="G223" s="34">
         <v>1.9011</v>
       </c>
-      <c r="H223" s="37">
+      <c r="H223" s="35">
         <v>1.822</v>
       </c>
       <c r="I223" s="3">
@@ -6169,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="L223" s="3"/>
-      <c r="M223" s="32">
+      <c r="M223" s="30">
         <v>0.1622</v>
       </c>
       <c r="N223">
@@ -6178,8 +6220,8 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="33"/>
-      <c r="B224" s="44"/>
+      <c r="A224" s="31"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="3" t="s">
         <v>24</v>
       </c>
@@ -6207,7 +6249,7 @@
       <c r="K224" s="3">
         <v>1</v>
       </c>
-      <c r="M224" s="32">
+      <c r="M224" s="30">
         <v>0.0842</v>
       </c>
       <c r="N224">
@@ -6216,8 +6258,8 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="33"/>
-      <c r="B225" s="44"/>
+      <c r="A225" s="31"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="3" t="s">
         <v>25</v>
       </c>
@@ -6246,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="L225" s="3"/>
-      <c r="M225" s="32">
+      <c r="M225" s="30">
         <v>0.4213</v>
       </c>
       <c r="N225">
@@ -6255,8 +6297,8 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="33"/>
-      <c r="B226" s="44"/>
+      <c r="A226" s="31"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="3" t="s">
         <v>26</v>
       </c>
@@ -6285,7 +6327,7 @@
         <v>1.4972</v>
       </c>
       <c r="L226" s="3"/>
-      <c r="M226" s="32">
+      <c r="M226" s="30">
         <v>0.086</v>
       </c>
       <c r="N226">
@@ -6294,43 +6336,43 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="33"/>
-      <c r="B227" s="44"/>
+      <c r="A227" s="31"/>
+      <c r="B227" s="42"/>
       <c r="L227" s="3"/>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="33"/>
-      <c r="B228" s="44"/>
+      <c r="A228" s="31"/>
+      <c r="B228" s="42"/>
       <c r="L228" s="3"/>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="33"/>
-      <c r="B229" s="44"/>
+      <c r="A229" s="31"/>
+      <c r="B229" s="42"/>
       <c r="L229" s="3"/>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="33"/>
-      <c r="B230" s="44"/>
+      <c r="A230" s="31"/>
+      <c r="B230" s="42"/>
       <c r="L230" s="3"/>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="33"/>
-      <c r="B231" s="44"/>
+      <c r="A231" s="31"/>
+      <c r="B231" s="42"/>
       <c r="L231" s="3"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="33"/>
-      <c r="B232" s="44"/>
+      <c r="A232" s="31"/>
+      <c r="B232" s="42"/>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="33"/>
-      <c r="B233" s="44"/>
+      <c r="A233" s="31"/>
+      <c r="B233" s="42"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="33"/>
-      <c r="B234" s="44"/>
+      <c r="A234" s="31"/>
+      <c r="B234" s="42"/>
       <c r="L234" s="3"/>
     </row>
     <row r="235" spans="4:4">
@@ -6384,25 +6426,25 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6419,26 +6461,26 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>0.90807958</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>0.70475577</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>0.02606697</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>0.7977696</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>0.64913064</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <f>B2*0.216+C2*0.427</f>
         <v>0.49707590307</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <f>D2*0.178+E2*0.117+F2*0.062</f>
         <v>0.13822506354</v>
       </c>
@@ -6458,26 +6500,26 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0.29564166</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.18264055</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>0.25344332</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>0.0416936</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>0.45353028</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G12" si="0">B3*0.216+C3*0.427</f>
         <v>0.14184611341</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <f t="shared" ref="H3:H12" si="1">D3*0.178+E3*0.117+F3*0.062</f>
         <v>0.07810993952</v>
       </c>
@@ -6497,26 +6539,26 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.72747153</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0.0201271</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>0.06289818</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0.02142272</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>0.62078484</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
         <v>0.16572812218</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <f t="shared" si="1"/>
         <v>0.05219099436</v>
       </c>
@@ -6536,26 +6578,26 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.55477298</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>0.2348126</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0.59391503</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>0.1959264</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>0.34872884</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
         <v>0.22009594388</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <f t="shared" si="1"/>
         <v>0.15026145222</v>
       </c>
@@ -6575,26 +6617,26 @@
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.72289367</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>0.34785694</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>0.74645469</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>0.48683456</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>0.48446728</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <f t="shared" si="0"/>
         <v>0.3046799461</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>0.2198655497</v>
       </c>
@@ -6614,26 +6656,26 @@
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.81864395</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>0.32252073</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>0.45896286</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>0.27377472</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0.16820332</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>0.31454344491</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>0.12415563716</v>
       </c>
@@ -6653,26 +6695,26 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.841665</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>0.65966382</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>0.37670651</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>0.24544848</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>0.55631828</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>0.46347609114</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <f t="shared" si="1"/>
         <v>0.1302629643</v>
       </c>
@@ -6692,26 +6734,26 @@
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.43444486</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.41961271</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>0.63782378</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>0.2216392</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>0.43365108</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>0.27301471693</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
         <v>0.1663507862</v>
       </c>
@@ -6731,26 +6773,26 @@
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.78306571</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>0.35151563</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>0.13340246</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>0.31101264</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>0.5481684</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0.31923936737</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="1"/>
         <v>0.09412055756</v>
       </c>
@@ -6770,26 +6812,26 @@
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.0919851</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.19794293</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>0.52643859</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>0.1815584</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>0.16178132</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0.10439041271</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f t="shared" si="1"/>
         <v>0.12497884366</v>
       </c>
@@ -6824,11 +6866,11 @@
       <c r="F12">
         <v>0.44885492</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>0.39294847838</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>0.06715274852</v>
       </c>
@@ -6880,7 +6922,7 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="8">
@@ -6894,10 +6936,10 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.59373905544</v>
       </c>
       <c r="C21" s="8"/>
@@ -6908,10 +6950,10 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.5245454958</v>
       </c>
       <c r="C22" s="8"/>
@@ -6925,7 +6967,7 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.4601012269</v>
       </c>
       <c r="C23" s="8"/>
@@ -6936,10 +6978,10 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.43936550313</v>
       </c>
       <c r="C24" s="8"/>
@@ -6950,7 +6992,7 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="8">
@@ -6967,7 +7009,7 @@
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>0.41335992493</v>
       </c>
       <c r="C26" s="8"/>
@@ -6981,7 +7023,7 @@
       <c r="A27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.3703573961</v>
       </c>
       <c r="C27" s="8"/>
@@ -6992,10 +7034,10 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.22936925637</v>
       </c>
       <c r="C28" s="8"/>
@@ -7009,7 +7051,7 @@
       <c r="A29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.21995605293</v>
       </c>
       <c r="C29" s="8"/>
@@ -7023,7 +7065,7 @@
       <c r="A30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.21791911654</v>
       </c>
       <c r="G30" s="8"/>
@@ -7045,74 +7087,74 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0.3046799461</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <v>0.29</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <v>0.2198655497</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.31454344491</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="25">
         <v>0.12415563716</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>0.46347609114</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>0.1302629643</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>0.27301471693</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>0.1663507862</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>0.10439041271</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>0.12497884366</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>0.49707590307</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="25">
         <v>0.13822506354</v>
       </c>
     </row>
@@ -7120,13 +7162,13 @@
       <c r="A41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>0.14184611341</v>
       </c>
       <c r="C41" s="19">
         <v>0.25</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>0.07810993952</v>
       </c>
       <c r="E41" s="19">
@@ -7137,10 +7179,10 @@
       <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>0.16572812218</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="25">
         <v>0.05219099436</v>
       </c>
     </row>
@@ -7148,10 +7190,10 @@
       <c r="A43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>0.22009594388</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="25">
         <v>0.15026145222</v>
       </c>
     </row>
@@ -7159,10 +7201,10 @@
       <c r="A44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>0.31923936737</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="25">
         <v>0.09412055756</v>
       </c>
     </row>
@@ -7191,7 +7233,7 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7232,7 +7274,7 @@
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -8008,7 +8050,7 @@
       <c r="D16" s="3">
         <v>0.0448440748440749</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>0.02</v>
       </c>
       <c r="F16" s="3">
@@ -8037,7 +8079,7 @@
       <c r="D17" s="3">
         <v>0.767091138087199</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>0.774680172575502</v>
       </c>
       <c r="F17" s="3">
@@ -8066,7 +8108,7 @@
       <c r="D18" s="3">
         <v>0.614289092521803</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>0.554851348832191</v>
       </c>
       <c r="F18" s="3">
@@ -8095,7 +8137,7 @@
       <c r="D19" s="3">
         <v>0.0744274809160305</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>0.0763358778625954</v>
       </c>
       <c r="F19" s="3">
@@ -8124,7 +8166,7 @@
       <c r="D20" s="3">
         <v>0.708074930078269</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>0.65398044359647</v>
       </c>
       <c r="F20" s="3">
@@ -8153,7 +8195,7 @@
       <c r="D21" s="3">
         <v>0.0592888462020295</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>0.0466275525117969</v>
       </c>
       <c r="F21" s="3">
@@ -8182,7 +8224,7 @@
       <c r="D22" s="3">
         <v>0.613820733216744</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>0.501112927126502</v>
       </c>
       <c r="F22" s="3">
@@ -8202,28 +8244,28 @@
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>0.299038095238095</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>0.30322380952381</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>0.313997619047619</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>0.324759523809524</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>0.336554761904762</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>0.347592857142857</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>0.359004761904762</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>0.369926190476191</v>
       </c>
     </row>
@@ -8370,7 +8412,7 @@
         <v>0.197310429894698</v>
       </c>
       <c r="E29" s="21">
-        <f>0.7889*E16+0.2111*E17</f>
+        <f t="shared" si="11"/>
         <v>0.179312984430688</v>
       </c>
       <c r="F29" s="3">
@@ -8407,7 +8449,7 @@
         <v>0.377628410269175</v>
       </c>
       <c r="E30" s="21">
-        <f>0.1217*E20+0.1271*E21+0.1659*E22+0.5799*E23</f>
+        <f t="shared" si="12"/>
         <v>0.356978464377369</v>
       </c>
       <c r="F30" s="3">
@@ -8444,7 +8486,7 @@
         <v>0.187582474708601</v>
       </c>
       <c r="E31" s="21">
-        <f>0.2096*E18+0.7904*E19</f>
+        <f t="shared" si="13"/>
         <v>0.176632720577823</v>
       </c>
       <c r="F31" s="3">
@@ -8481,7 +8523,7 @@
         <v>0.361004294730613</v>
       </c>
       <c r="E32" s="21">
-        <f>0.4644*E24+0.5356*E25</f>
+        <f t="shared" si="14"/>
         <v>0.37098154745018</v>
       </c>
       <c r="F32" s="3">
@@ -8518,7 +8560,7 @@
         <v>0.550152770532448</v>
       </c>
       <c r="E33" s="21">
-        <f>0.6667*E26+0.3333*E27</f>
+        <f t="shared" si="15"/>
         <v>0.52540925915697</v>
       </c>
       <c r="F33" s="3">
@@ -8592,7 +8634,7 @@
         <v>0.141895604674249</v>
       </c>
       <c r="E36" s="20">
-        <f>0.117*E31+0.061*E32+0.178*E33</f>
+        <f t="shared" si="17"/>
         <v>0.136818750832007</v>
       </c>
       <c r="F36">
@@ -8668,10 +8710,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:V66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/F题/data/所有数据.xlsx
+++ b/F题/data/所有数据.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="81">
   <si>
     <t>二级指标</t>
   </si>
@@ -304,6 +304,9 @@
     <t>总分排名情况</t>
   </si>
   <si>
+    <t>总分阈值</t>
+  </si>
+  <si>
     <t>教育阈值</t>
   </si>
   <si>
@@ -384,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="31">
@@ -467,18 +470,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,8 +499,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -511,32 +559,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,27 +574,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,23 +590,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,13 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,13 +675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +699,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,103 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,19 +795,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,11 +854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,8 +872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,17 +893,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,26 +951,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,137 +971,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,6 +1187,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1311,7 +1323,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.8"/>
+          <fgColor theme="7" tint="0.8"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1324,53 +1336,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>353060</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="635"/>
-          <a:ext cx="7210425" cy="6696075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,7 +1610,7 @@
     <col min="10" max="10" width="10.1083333333333"/>
     <col min="11" max="11" width="9.21666666666667"/>
     <col min="12" max="12" width="10.1083333333333"/>
-    <col min="13" max="13" width="9" style="30"/>
+    <col min="13" max="13" width="9" style="33"/>
     <col min="14" max="14" width="11.5"/>
   </cols>
   <sheetData>
@@ -1686,7 +1651,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
@@ -1694,10 +1659,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1720,16 +1685,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="30">
+      <c r="M2" s="33">
         <v>0.9001</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="40">
         <v>0.4411</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1754,16 +1719,16 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="30">
+      <c r="M3" s="33">
         <v>0.3694</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="40">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1775,16 +1740,16 @@
       <c r="G4" s="21">
         <v>0.8876</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="33">
         <v>0.8832</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="40">
         <v>0.3162</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1803,16 +1768,16 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="M5" s="30">
+      <c r="M5" s="33">
         <v>0.6325</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="40">
         <v>0.1717</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1837,16 +1802,16 @@
       <c r="J6" s="3">
         <v>1.226</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="33">
         <v>0.7504</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="40">
         <v>0.5274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1863,16 +1828,16 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="30">
+      <c r="M7" s="33">
         <v>0.9148</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="40">
         <v>0.3344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1895,16 +1860,16 @@
       <c r="J8" s="3">
         <v>0.7321</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="33">
         <v>0.81</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="40">
         <v>0.274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1931,16 +1896,16 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="30">
+      <c r="M9" s="33">
         <v>0.3579</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="40">
         <v>0.7537</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1967,16 +1932,16 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="30">
+      <c r="M10" s="33">
         <v>0.786</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="40">
         <v>0.5069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2003,16 +1968,16 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="30">
+      <c r="M11" s="33">
         <v>0.02</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="40">
         <v>0.96</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2041,43 +2006,43 @@
         <v>0.8127</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="30">
+      <c r="M12" s="33">
         <v>0.8647</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="40">
         <v>0.3055</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="31"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2088,8 +2053,8 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2112,7 +2077,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="30">
+      <c r="M19" s="33">
         <v>0.9379</v>
       </c>
       <c r="N19">
@@ -2121,8 +2086,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2112,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="30">
+      <c r="M20" s="33">
         <v>0.02</v>
       </c>
       <c r="N20">
@@ -2156,8 +2121,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
@@ -2169,7 +2134,7 @@
       <c r="G21" s="21">
         <v>13.6909</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="33">
         <v>0.1455</v>
       </c>
       <c r="N21">
@@ -2178,8 +2143,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="31"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2163,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="M22" s="30">
+      <c r="M22" s="33">
         <v>0.2643</v>
       </c>
       <c r="N22">
@@ -2207,8 +2172,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2198,7 @@
       <c r="J23" s="3">
         <v>22.5669</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="33">
         <v>0.6201</v>
       </c>
       <c r="N23">
@@ -2242,8 +2207,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2268,7 +2233,7 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="30">
+      <c r="M24" s="33">
         <v>0.4593</v>
       </c>
       <c r="N24">
@@ -2277,8 +2242,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="31"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2268,7 @@
       <c r="J25" s="3">
         <v>31.9255</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="33">
         <v>0.96</v>
       </c>
       <c r="N25">
@@ -2312,8 +2277,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="31"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2340,7 +2305,7 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="30">
+      <c r="M26" s="33">
         <v>0.7205</v>
       </c>
       <c r="N26">
@@ -2349,8 +2314,8 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2342,7 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="30">
+      <c r="M27" s="33">
         <v>0.7721</v>
       </c>
       <c r="N27">
@@ -2386,8 +2351,8 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="31"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2418,7 +2383,7 @@
       <c r="L28" s="3">
         <v>23.3146</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="33">
         <v>0.361</v>
       </c>
       <c r="N28">
@@ -2427,8 +2392,8 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="31"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2402,7 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="30">
+      <c r="M29" s="33">
         <v>0.2056</v>
       </c>
       <c r="N29">
@@ -2446,28 +2411,28 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="31"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2475,7 +2440,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2483,11 +2448,11 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="31"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
         <v>16</v>
@@ -2519,12 +2484,12 @@
       <c r="L37" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="33">
         <v>0.186</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="31"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -2556,12 +2521,12 @@
       <c r="L38" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="33">
         <v>0.1235</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="31"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>18</v>
@@ -2593,12 +2558,12 @@
       <c r="L39" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="31"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
         <v>19</v>
@@ -2630,12 +2595,12 @@
       <c r="L40" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="33">
         <v>0.5686</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="31"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
         <v>20</v>
@@ -2667,12 +2632,12 @@
       <c r="L41" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="33">
         <v>0.5292</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="31"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
         <v>21</v>
@@ -2704,12 +2669,12 @@
       <c r="L42" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="31"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
         <v>22</v>
@@ -2741,12 +2706,12 @@
       <c r="L43" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="33">
         <v>0.5409</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="31"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
         <v>23</v>
@@ -2760,10 +2725,10 @@
       <c r="F44" s="3">
         <v>0.785010696895576</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="37">
         <v>0.787</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="38">
         <v>0.797</v>
       </c>
       <c r="I44" s="3">
@@ -2778,12 +2743,12 @@
       <c r="L44" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="33">
         <v>0.6777</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="31"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
         <v>24</v>
@@ -2815,12 +2780,12 @@
       <c r="L45" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="33">
         <v>0.6101</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="31"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
         <v>25</v>
@@ -2852,12 +2817,12 @@
       <c r="L46" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="33">
         <v>0.5404</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="31"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -2889,48 +2854,48 @@
       <c r="L47" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="33">
         <v>0.4212</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="31"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="31"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="31"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="31"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="31"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="1"/>
       <c r="N55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="31"/>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2939,7 +2904,7 @@
       <c r="D56" s="3">
         <v>527</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="33">
         <v>0.96</v>
       </c>
       <c r="N56">
@@ -2948,15 +2913,15 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="31"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="M57" s="30">
+      <c r="M57" s="33">
         <v>0.02</v>
       </c>
       <c r="N57">
@@ -2965,8 +2930,8 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="31"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
@@ -2981,7 +2946,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="30">
+      <c r="M58" s="33">
         <v>0.0218</v>
       </c>
       <c r="N58">
@@ -2990,8 +2955,8 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="31"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3006,7 +2971,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="30">
+      <c r="M59" s="33">
         <v>0.0971</v>
       </c>
       <c r="N59">
@@ -3015,8 +2980,8 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="31"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="3" t="s">
         <v>20</v>
       </c>
@@ -3031,7 +2996,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="30">
+      <c r="M60" s="33">
         <v>0.4756</v>
       </c>
       <c r="N60">
@@ -3040,8 +3005,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="31"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="3" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3021,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="30">
+      <c r="M61" s="33">
         <v>0.0918</v>
       </c>
       <c r="N61">
@@ -3065,8 +3030,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="31"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="3" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3046,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="30">
+      <c r="M62" s="33">
         <v>0.1671</v>
       </c>
       <c r="N62">
@@ -3090,8 +3055,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="31"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
@@ -3106,7 +3071,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="30">
+      <c r="M63" s="33">
         <v>0.1007</v>
       </c>
       <c r="N63">
@@ -3115,8 +3080,8 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="31"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="3" t="s">
         <v>24</v>
       </c>
@@ -3131,7 +3096,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="30">
+      <c r="M64" s="33">
         <v>0.2317</v>
       </c>
       <c r="N64">
@@ -3140,8 +3105,8 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="31"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
@@ -3156,7 +3121,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="30">
+      <c r="M65" s="33">
         <v>0.0864</v>
       </c>
       <c r="N65">
@@ -3165,8 +3130,8 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="31"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="3" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3146,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="30">
+      <c r="M66" s="33">
         <v>0.2155</v>
       </c>
       <c r="N66">
@@ -3190,20 +3155,20 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="39"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="39"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="39"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="31"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3216,12 +3181,12 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="39"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="31"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3234,8 +3199,8 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="31"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3248,8 +3213,8 @@
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="31"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3262,8 +3227,8 @@
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="31"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3276,8 +3241,8 @@
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="31"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3290,8 +3255,8 @@
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="31"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3304,8 +3269,8 @@
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="31"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3318,8 +3283,8 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="31"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3332,20 +3297,20 @@
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="42"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="31"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>16</v>
       </c>
@@ -3376,13 +3341,13 @@
       <c r="L82" s="3">
         <v>1.403</v>
       </c>
-      <c r="M82" s="30">
+      <c r="M82" s="33">
         <v>0.2085</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="31"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
@@ -3411,13 +3376,13 @@
       <c r="L83" s="3">
         <v>0.6205</v>
       </c>
-      <c r="M83" s="30">
+      <c r="M83" s="33">
         <v>0.1376</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="31"/>
-      <c r="B84" s="39"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="3" t="s">
         <v>18</v>
       </c>
@@ -3448,13 +3413,13 @@
       <c r="L84" s="3">
         <v>0.3656</v>
       </c>
-      <c r="M84" s="30">
+      <c r="M84" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="31"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="3" t="s">
         <v>19</v>
       </c>
@@ -3480,13 +3445,13 @@
         <v>3.2266</v>
       </c>
       <c r="K85" s="3"/>
-      <c r="M85" s="30">
+      <c r="M85" s="33">
         <v>0.6065</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="31"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="3" t="s">
         <v>20</v>
       </c>
@@ -3514,13 +3479,13 @@
       <c r="K86" s="3">
         <v>3.1744</v>
       </c>
-      <c r="M86" s="30">
+      <c r="M86" s="33">
         <v>0.5866</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="31"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="3" t="s">
         <v>21</v>
       </c>
@@ -3546,13 +3511,13 @@
       <c r="K87" s="3">
         <v>6.1853</v>
       </c>
-      <c r="M87" s="30">
+      <c r="M87" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="31"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
@@ -3580,13 +3545,13 @@
       <c r="K88" s="3">
         <v>2.9389</v>
       </c>
-      <c r="M88" s="30">
+      <c r="M88" s="33">
         <v>0.5732</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="31"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="3" t="s">
         <v>23</v>
       </c>
@@ -3599,10 +3564,10 @@
       <c r="F89" s="3">
         <v>3.8702</v>
       </c>
-      <c r="G89" s="34">
+      <c r="G89" s="37">
         <v>3.8895</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="43">
         <v>3.942</v>
       </c>
       <c r="I89" s="3">
@@ -3614,13 +3579,13 @@
       <c r="K89" s="3">
         <v>4.1465</v>
       </c>
-      <c r="M89" s="30">
+      <c r="M89" s="33">
         <v>0.7577</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="31"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="3" t="s">
         <v>24</v>
       </c>
@@ -3648,13 +3613,13 @@
       <c r="K90" s="3">
         <v>3.1672</v>
       </c>
-      <c r="M90" s="30">
+      <c r="M90" s="33">
         <v>0.6631</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="31"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="3" t="s">
         <v>25</v>
       </c>
@@ -3683,13 +3648,13 @@
         <v>3.2443</v>
       </c>
       <c r="L91" s="3"/>
-      <c r="M91" s="30">
+      <c r="M91" s="33">
         <v>0.6535</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="31"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="3" t="s">
         <v>26</v>
       </c>
@@ -3720,52 +3685,52 @@
       <c r="L92" s="3">
         <v>2.8883</v>
       </c>
-      <c r="M92" s="30">
+      <c r="M92" s="33">
         <v>0.5011</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="31"/>
-      <c r="B93" s="39"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="42"/>
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="31"/>
-      <c r="B94" s="39"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="42"/>
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="31"/>
-      <c r="B95" s="39"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="42"/>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="31"/>
-      <c r="B96" s="39"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="42"/>
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="31"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="42"/>
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="31"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="31"/>
-      <c r="B99" s="39"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="39"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="42"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="31"/>
-      <c r="B101" s="38" t="s">
+      <c r="A101" s="34"/>
+      <c r="B101" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="3"/>
@@ -3773,15 +3738,15 @@
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="31"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="31"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="3" t="s">
         <v>16</v>
       </c>
@@ -3806,13 +3771,13 @@
       <c r="L103" s="3">
         <v>24.7259</v>
       </c>
-      <c r="M103" s="30">
+      <c r="M103" s="33">
         <v>0.2049</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="31"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="3" t="s">
         <v>17</v>
       </c>
@@ -3827,13 +3792,13 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="30">
+      <c r="M104" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="31"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="3" t="s">
         <v>18</v>
       </c>
@@ -3860,13 +3825,13 @@
       <c r="L105" s="3">
         <v>15.168</v>
       </c>
-      <c r="M105" s="30">
+      <c r="M105" s="33">
         <v>0.021</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="31"/>
-      <c r="B106" s="33"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="3" t="s">
         <v>19</v>
       </c>
@@ -3891,13 +3856,13 @@
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="30">
+      <c r="M106" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="31"/>
-      <c r="B107" s="33"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="3" t="s">
         <v>20</v>
       </c>
@@ -3914,13 +3879,13 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="30">
+      <c r="M107" s="33">
         <v>0.2002</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="31"/>
-      <c r="B108" s="33"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="3" t="s">
         <v>21</v>
       </c>
@@ -3941,13 +3906,13 @@
         <v>38.7509</v>
       </c>
       <c r="L108" s="3"/>
-      <c r="M108" s="30">
+      <c r="M108" s="33">
         <v>0.5061</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="31"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="3" t="s">
         <v>22</v>
       </c>
@@ -3976,13 +3941,13 @@
         <v>20.123</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="M109" s="30">
+      <c r="M109" s="33">
         <v>0.1558</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="31"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="3" t="s">
         <v>23</v>
       </c>
@@ -3995,10 +3960,10 @@
       <c r="F110" s="3">
         <v>13.3546</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G110" s="37">
         <v>13.4584</v>
       </c>
-      <c r="H110" s="35">
+      <c r="H110" s="38">
         <v>13.5772</v>
       </c>
       <c r="I110" s="3">
@@ -4011,13 +3976,13 @@
         <v>12.7413</v>
       </c>
       <c r="L110" s="3"/>
-      <c r="M110" s="30">
+      <c r="M110" s="33">
         <v>0.0465</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="31"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="3" t="s">
         <v>24</v>
       </c>
@@ -4042,13 +4007,13 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-      <c r="M111" s="30">
+      <c r="M111" s="33">
         <v>0.1455</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="31"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="3" t="s">
         <v>25</v>
       </c>
@@ -4077,13 +4042,13 @@
         <v>12.2835</v>
       </c>
       <c r="L112" s="3"/>
-      <c r="M112" s="30">
+      <c r="M112" s="33">
         <v>0.045</v>
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="31"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="3" t="s">
         <v>26</v>
       </c>
@@ -4106,47 +4071,47 @@
       <c r="L113" s="3">
         <v>14.8453</v>
       </c>
-      <c r="M113" s="30">
+      <c r="M113" s="33">
         <v>0.1368</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="31"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="31"/>
-      <c r="B115" s="33"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="36"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="31"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="36"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="31"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="36"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="31"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="36"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="31"/>
-      <c r="B119" s="33"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="36"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="31"/>
-      <c r="B120" s="38" t="s">
+      <c r="A120" s="34"/>
+      <c r="B120" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="31"/>
-      <c r="B121" s="33"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="36"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="31"/>
-      <c r="B122" s="33"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="3" t="s">
         <v>16</v>
       </c>
@@ -4171,13 +4136,13 @@
       <c r="L122" s="3">
         <v>26.2828</v>
       </c>
-      <c r="M122" s="30">
+      <c r="M122" s="33">
         <v>0.5757</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="31"/>
-      <c r="B123" s="33"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="3" t="s">
         <v>17</v>
       </c>
@@ -4198,13 +4163,13 @@
       <c r="L123" s="3">
         <v>9.1306</v>
       </c>
-      <c r="M123" s="30">
+      <c r="M123" s="33">
         <v>0.1901</v>
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="31"/>
-      <c r="B124" s="33"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="3" t="s">
         <v>18</v>
       </c>
@@ -4213,7 +4178,7 @@
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="41">
+      <c r="G124" s="44">
         <v>0.2329</v>
       </c>
       <c r="H124" s="3"/>
@@ -4223,13 +4188,13 @@
       <c r="L124" s="3">
         <v>4.0271</v>
       </c>
-      <c r="M124" s="30">
+      <c r="M124" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="31"/>
-      <c r="B125" s="33"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="3" t="s">
         <v>19</v>
       </c>
@@ -4256,13 +4221,13 @@
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="30">
+      <c r="M125" s="33">
         <v>0.8655</v>
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="31"/>
-      <c r="B126" s="33"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="3" t="s">
         <v>20</v>
       </c>
@@ -4285,13 +4250,13 @@
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="30">
+      <c r="M126" s="33">
         <v>0.7984</v>
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="31"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="3" t="s">
         <v>21</v>
       </c>
@@ -4314,13 +4279,13 @@
         <v>46.136</v>
       </c>
       <c r="L127" s="3"/>
-      <c r="M127" s="30">
+      <c r="M127" s="33">
         <v>0.2815</v>
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="31"/>
-      <c r="B128" s="33"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="3" t="s">
         <v>22</v>
       </c>
@@ -4347,13 +4312,13 @@
       </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-      <c r="M128" s="30">
+      <c r="M128" s="33">
         <v>0.6878</v>
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="31"/>
-      <c r="B129" s="33"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="3" t="s">
         <v>23</v>
       </c>
@@ -4382,13 +4347,13 @@
         <v>49.8633</v>
       </c>
       <c r="L129" s="3"/>
-      <c r="M129" s="30">
+      <c r="M129" s="33">
         <v>0.8261</v>
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="31"/>
-      <c r="B130" s="33"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="3" t="s">
         <v>24</v>
       </c>
@@ -4415,13 +4380,13 @@
         <v>48.8878</v>
       </c>
       <c r="L130" s="3"/>
-      <c r="M130" s="30">
+      <c r="M130" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="31"/>
-      <c r="B131" s="33"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="3" t="s">
         <v>25</v>
       </c>
@@ -4434,10 +4399,10 @@
       <c r="F131" s="3">
         <v>33.4671</v>
       </c>
-      <c r="G131" s="34">
+      <c r="G131" s="37">
         <v>27.5573</v>
       </c>
-      <c r="H131" s="35">
+      <c r="H131" s="38">
         <v>23.4492</v>
       </c>
       <c r="I131" s="3">
@@ -4450,13 +4415,13 @@
         <v>36.1116</v>
       </c>
       <c r="L131" s="3"/>
-      <c r="M131" s="30">
+      <c r="M131" s="33">
         <v>0.5098</v>
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="31"/>
-      <c r="B132" s="33"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="3" t="s">
         <v>26</v>
       </c>
@@ -4485,41 +4450,41 @@
       <c r="L132" s="3">
         <v>25.6742</v>
       </c>
-      <c r="M132" s="30">
+      <c r="M132" s="33">
         <v>0.3509</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="31"/>
-      <c r="B133" s="33"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="36"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="31"/>
-      <c r="B134" s="33"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="36"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="31"/>
-      <c r="B135" s="33"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="36"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="31"/>
-      <c r="B136" s="33"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="36"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="31"/>
-      <c r="B137" s="33"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="36"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="31"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="3" t="s">
         <v>16</v>
       </c>
@@ -4528,7 +4493,7 @@
         <v>9.1363</v>
       </c>
       <c r="F139" s="3"/>
-      <c r="G139" s="43">
+      <c r="G139" s="46">
         <v>9.1363</v>
       </c>
       <c r="H139" s="3"/>
@@ -4536,13 +4501,13 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="M139" s="30">
+      <c r="M139" s="33">
         <v>0.2906</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="31"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="3" t="s">
         <v>17</v>
       </c>
@@ -4551,7 +4516,7 @@
         <v>9.6854</v>
       </c>
       <c r="F140" s="3"/>
-      <c r="G140" s="41">
+      <c r="G140" s="44">
         <v>9.6854</v>
       </c>
       <c r="H140" s="3"/>
@@ -4559,35 +4524,35 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="30">
+      <c r="M140" s="33">
         <v>0.3109</v>
       </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="31"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="45">
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="48">
         <v>1.8275</v>
       </c>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
-      <c r="K141" s="44">
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="47"/>
+      <c r="K141" s="47">
         <v>1.8275</v>
       </c>
-      <c r="M141" s="30">
+      <c r="M141" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="31"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="3" t="s">
         <v>19</v>
       </c>
@@ -4610,20 +4575,20 @@
         <v>24.7129</v>
       </c>
       <c r="L142" s="3"/>
-      <c r="M142" s="30">
+      <c r="M142" s="33">
         <v>0.8008</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="31"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="45"/>
       <c r="C143" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="34">
+      <c r="G143" s="37">
         <v>15.7147</v>
       </c>
       <c r="H143" s="3">
@@ -4639,20 +4604,20 @@
         <v>18.0017</v>
       </c>
       <c r="L143" s="3"/>
-      <c r="M143" s="30">
+      <c r="M143" s="33">
         <v>0.5341</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="31"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="46">
+      <c r="G144" s="49">
         <v>21.9868</v>
       </c>
       <c r="H144" s="3">
@@ -4666,26 +4631,26 @@
       </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="M144" s="30">
+      <c r="M144" s="33">
         <v>0.7663</v>
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="31"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="45"/>
       <c r="C145" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="20">
         <v>10.32</v>
       </c>
-      <c r="M145" s="30">
+      <c r="M145" s="33">
         <v>0.3344</v>
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="31"/>
-      <c r="B146" s="42"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="3" t="s">
         <v>23</v>
       </c>
@@ -4708,13 +4673,13 @@
       <c r="L146" s="3">
         <v>31.0932</v>
       </c>
-      <c r="M146" s="30">
+      <c r="M146" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="31"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="3" t="s">
         <v>24</v>
       </c>
@@ -4733,13 +4698,13 @@
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="M147" s="30">
+      <c r="M147" s="33">
         <v>0.7902</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="31"/>
-      <c r="B148" s="42"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="3" t="s">
         <v>25</v>
       </c>
@@ -4762,13 +4727,13 @@
         <v>23.9369</v>
       </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="30">
+      <c r="M148" s="33">
         <v>0.7683</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="31"/>
-      <c r="B149" s="42"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="3" t="s">
         <v>26</v>
       </c>
@@ -4797,46 +4762,46 @@
       <c r="L149" s="3">
         <v>11.7553</v>
       </c>
-      <c r="M149" s="30">
+      <c r="M149" s="33">
         <v>0.3253</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="31"/>
-      <c r="B150" s="42"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="45"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="31"/>
-      <c r="B151" s="42"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="31"/>
-      <c r="B152" s="42"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="31"/>
-      <c r="B153" s="42"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="45"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="31"/>
-      <c r="B154" s="42"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="31"/>
-      <c r="B155" s="42"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="48"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="51"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -4844,8 +4809,8 @@
       <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="31"/>
-      <c r="B156" s="36" t="s">
+      <c r="A156" s="34"/>
+      <c r="B156" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N156" t="s">
@@ -4853,13 +4818,13 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="31"/>
-      <c r="B157" s="36"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="3"/>
-      <c r="G157" s="49">
+      <c r="G157" s="52">
         <v>55.3473</v>
       </c>
       <c r="H157" s="3">
@@ -4877,7 +4842,7 @@
       <c r="L157" s="3">
         <v>58.22413</v>
       </c>
-      <c r="M157" s="51">
+      <c r="M157" s="54">
         <v>0.96</v>
       </c>
       <c r="N157">
@@ -4886,12 +4851,12 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="31"/>
-      <c r="B158" s="36"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G158" s="49">
+      <c r="G158" s="52">
         <v>36.4308</v>
       </c>
       <c r="H158" s="3" t="s">
@@ -4909,7 +4874,7 @@
       <c r="L158" s="3">
         <v>38.6437</v>
       </c>
-      <c r="M158" s="51">
+      <c r="M158" s="54">
         <v>0.5772</v>
       </c>
       <c r="N158">
@@ -4918,12 +4883,12 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="31"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G159" s="49">
+      <c r="G159" s="52">
         <v>30.87</v>
       </c>
       <c r="H159" s="3">
@@ -4941,7 +4906,7 @@
       <c r="L159" s="3">
         <v>39.96728</v>
       </c>
-      <c r="M159" s="51">
+      <c r="M159" s="54">
         <v>0.4647</v>
       </c>
       <c r="N159">
@@ -4950,12 +4915,12 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="31"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="49">
+      <c r="G160" s="52">
         <v>17.1964</v>
       </c>
       <c r="H160" s="3">
@@ -4973,7 +4938,7 @@
       <c r="L160" s="3">
         <v>12.85294</v>
       </c>
-      <c r="M160" s="51">
+      <c r="M160" s="54">
         <v>0.188</v>
       </c>
       <c r="N160">
@@ -4982,12 +4947,12 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="31"/>
-      <c r="B161" s="36"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G161" s="49">
+      <c r="G161" s="52">
         <v>19.7746</v>
       </c>
       <c r="H161" s="3">
@@ -5005,7 +4970,7 @@
       <c r="L161" s="3">
         <v>23.69447</v>
       </c>
-      <c r="M161" s="51">
+      <c r="M161" s="54">
         <v>0.2401</v>
       </c>
       <c r="N161">
@@ -5014,8 +4979,8 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="31"/>
-      <c r="B162" s="36"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="3" t="s">
         <v>22</v>
       </c>
@@ -5027,7 +4992,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="51">
+      <c r="M162" s="54">
         <v>0.0241</v>
       </c>
       <c r="N162">
@@ -5036,8 +5001,8 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="31"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="3" t="s">
         <v>21</v>
       </c>
@@ -5059,7 +5024,7 @@
       <c r="L163" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M163" s="51">
+      <c r="M163" s="54">
         <v>0.2063</v>
       </c>
       <c r="N163">
@@ -5068,12 +5033,12 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="31"/>
-      <c r="B164" s="36"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G164" s="49">
+      <c r="G164" s="52">
         <v>14.0588</v>
       </c>
       <c r="H164" s="3" t="s">
@@ -5091,7 +5056,7 @@
       <c r="L164" s="3">
         <v>16.15616</v>
       </c>
-      <c r="M164" s="51">
+      <c r="M164" s="54">
         <v>0.1245</v>
       </c>
       <c r="N164">
@@ -5100,12 +5065,12 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="31"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G165" s="49">
+      <c r="G165" s="52">
         <v>25.5627</v>
       </c>
       <c r="H165" s="3">
@@ -5123,7 +5088,7 @@
       <c r="L165" s="3">
         <v>26.92654</v>
       </c>
-      <c r="M165" s="51">
+      <c r="M165" s="54">
         <v>0.3573</v>
       </c>
       <c r="N165">
@@ -5132,12 +5097,12 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="31"/>
-      <c r="B166" s="36"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G166" s="49">
+      <c r="G166" s="52">
         <v>8.8958</v>
       </c>
       <c r="H166" s="3">
@@ -5155,7 +5120,7 @@
       <c r="L166" s="3">
         <v>9.67928</v>
       </c>
-      <c r="M166" s="51">
+      <c r="M166" s="54">
         <v>0.02</v>
       </c>
       <c r="N166">
@@ -5164,12 +5129,12 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="31"/>
-      <c r="B167" s="36"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="49">
+      <c r="G167" s="52">
         <v>48.463</v>
       </c>
       <c r="H167" s="3">
@@ -5187,7 +5152,7 @@
       <c r="L167" s="3">
         <v>49.74521</v>
       </c>
-      <c r="M167" s="51">
+      <c r="M167" s="54">
         <v>0.8207</v>
       </c>
       <c r="N167">
@@ -5196,36 +5161,36 @@
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="31"/>
-      <c r="B168" s="36"/>
-      <c r="M168" s="51" t="s">
+      <c r="A168" s="34"/>
+      <c r="B168" s="39"/>
+      <c r="M168" s="54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="31"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="31"/>
-      <c r="B170" s="36"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="31"/>
-      <c r="B171" s="36"/>
-      <c r="M171" s="51" t="s">
+      <c r="A171" s="34"/>
+      <c r="B171" s="39"/>
+      <c r="M171" s="54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="31"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="39"/>
       <c r="G172" s="21" t="s">
         <v>42</v>
       </c>
@@ -5246,7 +5211,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -5254,25 +5219,25 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="31"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="1"/>
       <c r="N174" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="31"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="50">
+      <c r="D175" s="53">
         <v>42</v>
       </c>
       <c r="F175">
         <v>26</v>
       </c>
-      <c r="M175" s="30">
+      <c r="M175" s="33">
         <v>0.96</v>
       </c>
       <c r="N175">
@@ -5281,15 +5246,15 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="31"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D176" s="50">
+      <c r="D176" s="53">
         <v>0</v>
       </c>
-      <c r="M176" s="30">
+      <c r="M176" s="33">
         <v>0.02</v>
       </c>
       <c r="N176">
@@ -5298,15 +5263,15 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="31"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="1"/>
       <c r="C177" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D177" s="50">
+      <c r="D177" s="53">
         <v>0</v>
       </c>
-      <c r="M177" s="30">
+      <c r="M177" s="33">
         <v>0.02</v>
       </c>
       <c r="N177">
@@ -5315,15 +5280,15 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="31"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="1"/>
       <c r="C178" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D178" s="50">
+      <c r="D178" s="53">
         <v>0</v>
       </c>
-      <c r="M178" s="30">
+      <c r="M178" s="33">
         <v>0.02</v>
       </c>
       <c r="N178">
@@ -5332,18 +5297,18 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="31"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="50">
+      <c r="D179" s="53">
         <v>8</v>
       </c>
       <c r="F179">
         <v>6</v>
       </c>
-      <c r="M179" s="30">
+      <c r="M179" s="33">
         <v>0.199</v>
       </c>
       <c r="N179">
@@ -5352,18 +5317,18 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="31"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="1"/>
       <c r="C180" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="50">
+      <c r="D180" s="53">
         <v>6</v>
       </c>
       <c r="F180">
         <v>7</v>
       </c>
-      <c r="M180" s="30">
+      <c r="M180" s="33">
         <v>0.1543</v>
       </c>
       <c r="N180">
@@ -5372,18 +5337,18 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="31"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D181" s="50">
+      <c r="D181" s="53">
         <v>34</v>
       </c>
       <c r="F181">
         <v>46</v>
       </c>
-      <c r="M181" s="30">
+      <c r="M181" s="33">
         <v>0.781</v>
       </c>
       <c r="N181">
@@ -5392,18 +5357,18 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="31"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="50">
+      <c r="D182" s="53">
         <v>13</v>
       </c>
       <c r="F182">
         <v>14</v>
       </c>
-      <c r="M182" s="30">
+      <c r="M182" s="33">
         <v>0.311</v>
       </c>
       <c r="N182">
@@ -5412,18 +5377,18 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="31"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D183" s="50">
+      <c r="D183" s="53">
         <v>6</v>
       </c>
       <c r="F183">
         <v>34</v>
       </c>
-      <c r="M183" s="30">
+      <c r="M183" s="33">
         <v>0.1543</v>
       </c>
       <c r="N183">
@@ -5432,18 +5397,18 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="31"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="1"/>
       <c r="C184" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D184" s="50">
+      <c r="D184" s="53">
         <v>1</v>
       </c>
       <c r="F184">
         <v>48</v>
       </c>
-      <c r="M184" s="30">
+      <c r="M184" s="33">
         <v>0.0424</v>
       </c>
       <c r="N184">
@@ -5452,18 +5417,18 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="31"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D185" s="50">
+      <c r="D185" s="53">
         <v>31</v>
       </c>
       <c r="F185">
         <v>11</v>
       </c>
-      <c r="M185" s="30">
+      <c r="M185" s="33">
         <v>0.7138</v>
       </c>
       <c r="N185">
@@ -5472,48 +5437,48 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="31"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="31"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="31"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="31"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="31"/>
+      <c r="A190" s="34"/>
       <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="31"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="31"/>
+      <c r="A192" s="34"/>
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="31"/>
+      <c r="A193" s="34"/>
       <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B194" s="42" t="s">
+      <c r="B194" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="31"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="3" t="s">
         <v>16</v>
       </c>
@@ -5542,13 +5507,13 @@
       <c r="L195" s="3">
         <v>0</v>
       </c>
-      <c r="M195" s="30">
+      <c r="M195" s="33">
         <v>0.0291</v>
       </c>
     </row>
     <row r="196" spans="1:13">
-      <c r="A196" s="31"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="45"/>
       <c r="C196" s="3" t="s">
         <v>17</v>
       </c>
@@ -5557,7 +5522,7 @@
         <v>0.0278</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="41">
+      <c r="G196" s="44">
         <v>0.0278</v>
       </c>
       <c r="H196" s="3"/>
@@ -5565,13 +5530,13 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-      <c r="M196" s="30">
+      <c r="M196" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="31"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="3" t="s">
         <v>18</v>
       </c>
@@ -5598,13 +5563,13 @@
       <c r="L197" s="3">
         <v>0</v>
       </c>
-      <c r="M197" s="30">
+      <c r="M197" s="33">
         <v>0.0447</v>
       </c>
     </row>
     <row r="198" spans="1:13">
-      <c r="A198" s="31"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="45"/>
       <c r="C198" s="3" t="s">
         <v>19</v>
       </c>
@@ -5630,13 +5595,13 @@
         <v>4.5747</v>
       </c>
       <c r="K198" s="3"/>
-      <c r="M198" s="30">
+      <c r="M198" s="33">
         <v>0.4109</v>
       </c>
     </row>
     <row r="199" spans="1:13">
-      <c r="A199" s="31"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="45"/>
       <c r="C199" s="3" t="s">
         <v>20</v>
       </c>
@@ -5664,13 +5629,13 @@
       <c r="K199" s="3">
         <v>10</v>
       </c>
-      <c r="M199" s="30">
+      <c r="M199" s="33">
         <v>0.96</v>
       </c>
     </row>
     <row r="200" spans="1:13">
-      <c r="A200" s="31"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="45"/>
       <c r="C200" s="3" t="s">
         <v>21</v>
       </c>
@@ -5694,13 +5659,13 @@
       <c r="K200" s="3">
         <v>3</v>
       </c>
-      <c r="M200" s="30">
+      <c r="M200" s="33">
         <v>0.4209</v>
       </c>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="31"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="3" t="s">
         <v>22</v>
       </c>
@@ -5728,13 +5693,13 @@
       <c r="K201" s="3">
         <v>5</v>
       </c>
-      <c r="M201" s="30">
+      <c r="M201" s="33">
         <v>0.4418</v>
       </c>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="31"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="45"/>
       <c r="C202" s="3" t="s">
         <v>23</v>
       </c>
@@ -5747,10 +5712,10 @@
       <c r="F202" s="3">
         <v>7.2455</v>
       </c>
-      <c r="G202" s="34">
+      <c r="G202" s="37">
         <v>8.9034</v>
       </c>
-      <c r="H202" s="35">
+      <c r="H202" s="38">
         <v>9.7566</v>
       </c>
       <c r="I202" s="3">
@@ -5762,13 +5727,13 @@
       <c r="K202" s="3">
         <v>10</v>
       </c>
-      <c r="M202" s="30">
+      <c r="M202" s="33">
         <v>0.8756</v>
       </c>
     </row>
     <row r="203" spans="1:13">
-      <c r="A203" s="31"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="45"/>
       <c r="C203" s="3" t="s">
         <v>24</v>
       </c>
@@ -5796,13 +5761,13 @@
       <c r="K203" s="3">
         <v>4</v>
       </c>
-      <c r="M203" s="30">
+      <c r="M203" s="33">
         <v>0.158</v>
       </c>
     </row>
     <row r="204" spans="1:13">
-      <c r="A204" s="31"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="45"/>
       <c r="C204" s="3" t="s">
         <v>25</v>
       </c>
@@ -5831,20 +5796,20 @@
         <v>6</v>
       </c>
       <c r="L204" s="3"/>
-      <c r="M204" s="30">
+      <c r="M204" s="33">
         <v>0.579</v>
       </c>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="31"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
-      <c r="G205" s="41">
+      <c r="G205" s="44">
         <v>0.16672</v>
       </c>
       <c r="H205" s="3">
@@ -5862,65 +5827,65 @@
       <c r="L205" s="3">
         <v>0</v>
       </c>
-      <c r="M205" s="30">
+      <c r="M205" s="33">
         <v>0.0334</v>
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="31"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="45"/>
       <c r="L206" s="3"/>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="31"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="45"/>
       <c r="L207" s="3"/>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="31"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="45"/>
       <c r="L208" s="3"/>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="31"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="45"/>
       <c r="L209" s="3"/>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="31"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="45"/>
       <c r="L210" s="3"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="31"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="45"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="31"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="45"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="31"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="45"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="31"/>
-      <c r="B214" s="42" t="s">
+      <c r="A214" s="34"/>
+      <c r="B214" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="31"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="45"/>
       <c r="C215" s="3"/>
       <c r="N215" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="31"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="45"/>
       <c r="C216" s="3" t="s">
         <v>16</v>
       </c>
@@ -5949,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="L216" s="3"/>
-      <c r="M216" s="30">
+      <c r="M216" s="33">
         <v>0.02</v>
       </c>
       <c r="N216">
@@ -5958,8 +5923,8 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="31"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="45"/>
       <c r="C217" s="3" t="s">
         <v>17</v>
       </c>
@@ -5986,7 +5951,7 @@
         <v>13.3226</v>
       </c>
       <c r="L217" s="3"/>
-      <c r="M217" s="30">
+      <c r="M217" s="33">
         <v>0.7204</v>
       </c>
       <c r="N217">
@@ -5995,8 +5960,8 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="31"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="45"/>
       <c r="C218" s="3" t="s">
         <v>18</v>
       </c>
@@ -6024,7 +5989,7 @@
       <c r="K218" s="3">
         <v>1.3234</v>
       </c>
-      <c r="M218" s="30">
+      <c r="M218" s="33">
         <v>0.0993</v>
       </c>
       <c r="N218">
@@ -6033,8 +5998,8 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="31"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="45"/>
       <c r="C219" s="3" t="s">
         <v>19</v>
       </c>
@@ -6060,7 +6025,7 @@
         <v>8.9642</v>
       </c>
       <c r="K219" s="3"/>
-      <c r="M219" s="30">
+      <c r="M219" s="33">
         <v>0.96</v>
       </c>
       <c r="N219">
@@ -6069,8 +6034,8 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="31"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="45"/>
       <c r="C220" s="3" t="s">
         <v>20</v>
       </c>
@@ -6098,7 +6063,7 @@
       <c r="K220" s="3">
         <v>3</v>
       </c>
-      <c r="M220" s="30">
+      <c r="M220" s="33">
         <v>0.3193</v>
       </c>
       <c r="N220">
@@ -6107,8 +6072,8 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="31"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="45"/>
       <c r="C221" s="3" t="s">
         <v>21</v>
       </c>
@@ -6134,7 +6099,7 @@
       <c r="K221" s="3">
         <v>5</v>
       </c>
-      <c r="M221" s="30">
+      <c r="M221" s="33">
         <v>0.5351</v>
       </c>
       <c r="N221">
@@ -6143,8 +6108,8 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="31"/>
-      <c r="B222" s="42"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="45"/>
       <c r="C222" s="3" t="s">
         <v>22</v>
       </c>
@@ -6172,7 +6137,7 @@
       <c r="K222" s="3">
         <v>4</v>
       </c>
-      <c r="M222" s="30">
+      <c r="M222" s="33">
         <v>0.2465</v>
       </c>
       <c r="N222">
@@ -6181,8 +6146,8 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="31"/>
-      <c r="B223" s="42"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="45"/>
       <c r="C223" s="3" t="s">
         <v>23</v>
       </c>
@@ -6195,10 +6160,10 @@
       <c r="F223" s="3">
         <v>1.8823</v>
       </c>
-      <c r="G223" s="34">
+      <c r="G223" s="37">
         <v>1.9011</v>
       </c>
-      <c r="H223" s="35">
+      <c r="H223" s="38">
         <v>1.822</v>
       </c>
       <c r="I223" s="3">
@@ -6211,7 +6176,7 @@
         <v>2</v>
       </c>
       <c r="L223" s="3"/>
-      <c r="M223" s="30">
+      <c r="M223" s="33">
         <v>0.1622</v>
       </c>
       <c r="N223">
@@ -6220,8 +6185,8 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="31"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="45"/>
       <c r="C224" s="3" t="s">
         <v>24</v>
       </c>
@@ -6249,7 +6214,7 @@
       <c r="K224" s="3">
         <v>1</v>
       </c>
-      <c r="M224" s="30">
+      <c r="M224" s="33">
         <v>0.0842</v>
       </c>
       <c r="N224">
@@ -6258,8 +6223,8 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="31"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="45"/>
       <c r="C225" s="3" t="s">
         <v>25</v>
       </c>
@@ -6288,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="L225" s="3"/>
-      <c r="M225" s="30">
+      <c r="M225" s="33">
         <v>0.4213</v>
       </c>
       <c r="N225">
@@ -6297,8 +6262,8 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="31"/>
-      <c r="B226" s="42"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="45"/>
       <c r="C226" s="3" t="s">
         <v>26</v>
       </c>
@@ -6327,7 +6292,7 @@
         <v>1.4972</v>
       </c>
       <c r="L226" s="3"/>
-      <c r="M226" s="30">
+      <c r="M226" s="33">
         <v>0.086</v>
       </c>
       <c r="N226">
@@ -6336,43 +6301,43 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="31"/>
-      <c r="B227" s="42"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="45"/>
       <c r="L227" s="3"/>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="31"/>
-      <c r="B228" s="42"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="45"/>
       <c r="L228" s="3"/>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="31"/>
-      <c r="B229" s="42"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="45"/>
       <c r="L229" s="3"/>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="31"/>
-      <c r="B230" s="42"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="45"/>
       <c r="L230" s="3"/>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="31"/>
-      <c r="B231" s="42"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="45"/>
       <c r="L231" s="3"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="31"/>
-      <c r="B232" s="42"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="31"/>
-      <c r="B233" s="42"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="31"/>
-      <c r="B234" s="42"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="45"/>
       <c r="L234" s="3"/>
     </row>
     <row r="235" spans="4:4">
@@ -6413,8 +6378,8 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6916,8 +6881,12 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
@@ -6929,9 +6898,15 @@
         <v>0.63530096661</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.63530096661</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.38</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
@@ -6943,8 +6918,12 @@
         <v>0.59373905544</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.59373905544</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -6957,8 +6936,12 @@
         <v>0.5245454958</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.5245454958</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6971,8 +6954,12 @@
         <v>0.4601012269</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.43936550313</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -6985,8 +6972,12 @@
         <v>0.43936550313</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.43869908207</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6999,8 +6990,12 @@
         <v>0.43869908207</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.22936925637</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -7013,9 +7008,15 @@
         <v>0.41335992493</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.4601012269</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.315</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
@@ -7027,8 +7028,12 @@
         <v>0.3703573961</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0.41335992493</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -7041,8 +7046,12 @@
         <v>0.22936925637</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0.3703573961</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7055,8 +7064,12 @@
         <v>0.21995605293</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.21995605293</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -7066,6 +7079,12 @@
         <v>18</v>
       </c>
       <c r="B30" s="25">
+        <v>0.21791911654</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="25">
         <v>0.21791911654</v>
       </c>
       <c r="G30" s="8"/>
@@ -7077,13 +7096,13 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7093,13 +7112,13 @@
       <c r="B35" s="25">
         <v>0.3046799461</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="32">
         <v>0.29</v>
       </c>
       <c r="D35" s="25">
         <v>0.2198655497</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="32">
         <v>0.18</v>
       </c>
     </row>
@@ -7220,8 +7239,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A35:D45">
-    <sortCondition ref="A35:A45" sortBy="cellColor" dxfId="0"/>
+  <sortState ref="D20:E30">
+    <sortCondition ref="D20:D30" descending="1" sortBy="cellColor" dxfId="0"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7275,7 +7294,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -7304,7 +7323,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3">
         <v>1.9218</v>
@@ -7334,7 +7353,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3">
         <v>29.022</v>
@@ -7396,7 +7415,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3">
         <v>0.746841281148136</v>
@@ -7520,7 +7539,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3">
         <v>3.8026</v>
@@ -7582,7 +7601,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3">
         <v>15.5975</v>
@@ -7644,7 +7663,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>33.7866</v>
@@ -7768,7 +7787,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3">
         <v>20.9596</v>
@@ -7830,7 +7849,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3">
         <v>8.6915</v>
@@ -7892,7 +7911,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3">
         <v>6.9302</v>
@@ -7954,7 +7973,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3">
         <v>3.4159</v>
@@ -8026,7 +8045,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8039,7 +8058,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3">
         <v>0.0617879417879418</v>
@@ -8068,7 +8087,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3">
         <v>0.967584210949433</v>
@@ -8097,7 +8116,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3">
         <v>0.662694633379308</v>
@@ -8155,7 +8174,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3">
         <v>0.745995273507794</v>
@@ -8184,7 +8203,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3">
         <v>0.0929005720967136</v>
@@ -8213,7 +8232,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3">
         <v>0.619914026398549</v>
@@ -8271,7 +8290,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3">
         <v>0.723484433767205</v>
@@ -8300,7 +8319,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3">
         <v>0.0240877489204287</v>
@@ -8329,7 +8348,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>0.687873119404363</v>
@@ -8358,7 +8377,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3">
         <v>0.338084786307924</v>
@@ -8397,7 +8416,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3">
         <f>0.7889*B16+0.2111*B17</f>
@@ -8434,7 +8453,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3">
         <f>0.1217*B20+0.1271*B21+0.1659*B22+0.5799*B23</f>
@@ -8471,7 +8490,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3">
         <f>0.2096*B18+0.7904*B19</f>
@@ -8508,7 +8527,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3">
         <f>0.4644*B24+0.5356*B25</f>
@@ -8545,7 +8564,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
         <f>0.6667*B26+0.3333*B27</f>
@@ -8712,15 +8731,14 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8729,7 +8747,7 @@
   <sheetPr/>
   <dimension ref="A2:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -8741,26 +8759,26 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -8788,35 +8806,35 @@
     <row r="4" spans="2:21">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -8824,7 +8842,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>0.7889</v>
@@ -8837,7 +8855,7 @@
         <v>0.982954274327144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2">
         <v>0.2096</v>
@@ -8850,7 +8868,7 @@
         <v>0.797898518098935</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2">
         <v>0.1271</v>
@@ -8863,7 +8881,7 @@
         <v>0.698685378826672</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S5" s="2">
         <v>0.6667</v>
@@ -8881,7 +8899,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
         <v>0.2111</v>
@@ -8907,7 +8925,7 @@
         <v>0.0316756551890402</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2">
         <v>0.1271</v>
@@ -8920,7 +8938,7 @@
         <v>0.271472290059677</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S6" s="2">
         <v>0.3333</v>
@@ -8956,7 +8974,7 @@
         <v>0.00182367179702484</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="2">
         <v>0.1659</v>
@@ -9312,7 +9330,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9327,29 +9345,29 @@
     <row r="19" spans="2:22">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" t="s">
         <v>71</v>
       </c>
-      <c r="S19" t="s">
-        <v>70</v>
-      </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -9357,7 +9375,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
         <v>0.4644</v>
@@ -9397,7 +9415,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>0.5356</v>
@@ -9789,19 +9807,19 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
-        <v>70</v>
-      </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>50</v>
@@ -9810,16 +9828,16 @@
         <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M38" t="s">
         <v>53</v>
       </c>
       <c r="N38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:15">
@@ -10255,7 +10273,7 @@
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="4:5">
